--- a/results/Трекеры.xlsx
+++ b/results/Трекеры.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex A.Telnykh\Google Диск\WORK\2020\ИПФРАН\flouVisor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\database\fluovisor\FLUOVISOR2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9BC26-3C6D-4481-A38C-623A6CF80851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D2575E-C543-4A9A-8F0A-A7C60B05C5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="3" xr2:uid="{BD39AE1D-B893-4B9B-9048-7F34F8B4E062}"/>
   </bookViews>
@@ -5587,8 +5587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB401CC2-68A4-4843-A4D9-B6990517B94D}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5648,7 +5648,15 @@
       <c r="A4">
         <v>75</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="C4">
+        <v>6.7</v>
+      </c>
+      <c r="D4">
+        <v>6.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.4</v>
+      </c>
       <c r="F4" s="4">
         <v>11.7</v>
       </c>
@@ -5818,6 +5826,15 @@
       <c r="A15">
         <v>75</v>
       </c>
+      <c r="C15">
+        <v>14.1</v>
+      </c>
+      <c r="D15">
+        <v>13.2</v>
+      </c>
+      <c r="E15">
+        <v>15.7</v>
+      </c>
       <c r="F15">
         <v>24.3</v>
       </c>
@@ -5999,6 +6016,12 @@
       <c r="C26">
         <v>0</v>
       </c>
+      <c r="D26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E26">
+        <v>23.3</v>
+      </c>
       <c r="F26">
         <v>0</v>
       </c>
@@ -6210,6 +6233,15 @@
       <c r="B37">
         <v>0</v>
       </c>
+      <c r="C37">
+        <v>11.3</v>
+      </c>
+      <c r="D37">
+        <v>149</v>
+      </c>
+      <c r="E37">
+        <v>326</v>
+      </c>
       <c r="F37">
         <v>133</v>
       </c>
@@ -6399,6 +6431,15 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>75</v>
+      </c>
+      <c r="C48">
+        <v>48.4</v>
+      </c>
+      <c r="D48">
+        <v>48.6</v>
+      </c>
+      <c r="E48">
+        <v>185.3</v>
       </c>
       <c r="F48">
         <v>298.2</v>

--- a/results/Трекеры.xlsx
+++ b/results/Трекеры.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\database\fluovisor\FLUOVISOR2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D2575E-C543-4A9A-8F0A-A7C60B05C5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DFDA8-C4E9-4F6D-BF6C-710C8A8F04FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="3" xr2:uid="{BD39AE1D-B893-4B9B-9048-7F34F8B4E062}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="4" xr2:uid="{BD39AE1D-B893-4B9B-9048-7F34F8B4E062}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="51">
   <si>
     <t xml:space="preserve">CV Trackes </t>
   </si>
@@ -5587,8 +5587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB401CC2-68A4-4843-A4D9-B6990517B94D}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5643,6 +5643,36 @@
       <c r="A3">
         <v>50</v>
       </c>
+      <c r="C3">
+        <v>6.9</v>
+      </c>
+      <c r="D3">
+        <v>46.5</v>
+      </c>
+      <c r="E3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>16.5</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>21.5</v>
+      </c>
+      <c r="K3">
+        <v>3.1</v>
+      </c>
+      <c r="L3">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -5753,26 +5783,152 @@
       <c r="A7">
         <v>150</v>
       </c>
+      <c r="C7">
+        <v>8.4</v>
+      </c>
+      <c r="D7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E7">
+        <v>7.9</v>
+      </c>
+      <c r="F7">
+        <v>7.8</v>
+      </c>
+      <c r="G7">
+        <v>12.5</v>
+      </c>
+      <c r="H7">
+        <v>12.2</v>
+      </c>
+      <c r="J7">
+        <v>11.8</v>
+      </c>
+      <c r="K7">
+        <v>7.2</v>
+      </c>
+      <c r="L7">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>175</v>
       </c>
+      <c r="C8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D8">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E8">
+        <v>7.4</v>
+      </c>
+      <c r="F8">
+        <v>8.4</v>
+      </c>
+      <c r="G8">
+        <v>15.9</v>
+      </c>
+      <c r="H8">
+        <v>12.5</v>
+      </c>
+      <c r="J8">
+        <v>20.6</v>
+      </c>
+      <c r="K8">
+        <v>11.3</v>
+      </c>
+      <c r="L8">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200</v>
       </c>
+      <c r="C9">
+        <v>11.6</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F9">
+        <v>7.5</v>
+      </c>
+      <c r="H9">
+        <v>12.6</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>7.2</v>
+      </c>
+      <c r="L9">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>225</v>
       </c>
+      <c r="C10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D10">
+        <v>15.5</v>
+      </c>
+      <c r="E10">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H10">
+        <v>8.1</v>
+      </c>
+      <c r="J10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K10">
+        <v>6.8</v>
+      </c>
+      <c r="L10">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
+      <c r="C11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D11">
+        <v>14.4</v>
+      </c>
+      <c r="E11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F11">
+        <v>6.7</v>
+      </c>
+      <c r="H11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J11">
+        <v>10.9</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5821,6 +5977,36 @@
       <c r="A14">
         <v>50</v>
       </c>
+      <c r="C14">
+        <v>15.3</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>10.5</v>
+      </c>
+      <c r="F14">
+        <v>19.8</v>
+      </c>
+      <c r="G14">
+        <v>31.4</v>
+      </c>
+      <c r="H14">
+        <v>30.5</v>
+      </c>
+      <c r="I14">
+        <v>55.6</v>
+      </c>
+      <c r="J14">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>6.7</v>
+      </c>
+      <c r="L14">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5931,26 +6117,149 @@
       <c r="A18">
         <v>150</v>
       </c>
+      <c r="C18">
+        <v>16.5</v>
+      </c>
+      <c r="D18">
+        <v>33.4</v>
+      </c>
+      <c r="E18">
+        <v>18.3</v>
+      </c>
+      <c r="F18">
+        <v>23.2</v>
+      </c>
+      <c r="G18">
+        <v>23.9</v>
+      </c>
+      <c r="H18">
+        <v>23.5</v>
+      </c>
+      <c r="J18">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>18.100000000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>175</v>
       </c>
+      <c r="C19">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D19">
+        <v>39.1</v>
+      </c>
+      <c r="E19">
+        <v>21.2</v>
+      </c>
+      <c r="F19">
+        <v>23.5</v>
+      </c>
+      <c r="G19">
+        <v>27.3</v>
+      </c>
+      <c r="H19">
+        <v>23.5</v>
+      </c>
+      <c r="J19">
+        <v>38.9</v>
+      </c>
+      <c r="K19">
+        <v>21.7</v>
+      </c>
+      <c r="L19">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>200</v>
       </c>
+      <c r="C20">
+        <v>21.6</v>
+      </c>
+      <c r="D20">
+        <v>28.6</v>
+      </c>
+      <c r="E20">
+        <v>21.4</v>
+      </c>
+      <c r="F20">
+        <v>19.2</v>
+      </c>
+      <c r="H20">
+        <v>23.6</v>
+      </c>
+      <c r="J20">
+        <v>42.7</v>
+      </c>
+      <c r="K20">
+        <v>17.5</v>
+      </c>
+      <c r="L20">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>225</v>
       </c>
+      <c r="C21">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D21">
+        <v>29.1</v>
+      </c>
+      <c r="E21">
+        <v>22.4</v>
+      </c>
+      <c r="F21">
+        <v>25.5</v>
+      </c>
+      <c r="H21">
+        <v>20.8</v>
+      </c>
+      <c r="J21">
+        <v>43.1</v>
+      </c>
+      <c r="K21">
+        <v>16.7</v>
+      </c>
+      <c r="L21">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>250</v>
       </c>
+      <c r="C22">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>17.3</v>
+      </c>
+      <c r="H22">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J22">
+        <v>34.5</v>
+      </c>
+      <c r="K22">
+        <v>17.2</v>
+      </c>
+      <c r="L22">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -6005,6 +6314,33 @@
       <c r="C25">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>14.1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>5.3</v>
+      </c>
+      <c r="J25">
+        <v>27.6</v>
+      </c>
+      <c r="K25">
+        <v>55.3</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -6130,6 +6466,30 @@
       <c r="C29">
         <v>0</v>
       </c>
+      <c r="D29">
+        <v>0.245</v>
+      </c>
+      <c r="E29">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>37.4</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -6141,6 +6501,30 @@
       <c r="C30">
         <v>0</v>
       </c>
+      <c r="D30">
+        <v>0.37</v>
+      </c>
+      <c r="E30">
+        <v>0.98</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -6152,6 +6536,27 @@
       <c r="C31">
         <v>0</v>
       </c>
+      <c r="D31">
+        <v>0.628</v>
+      </c>
+      <c r="E31">
+        <v>0.37</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="K31">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -6163,6 +6568,27 @@
       <c r="C32">
         <v>0</v>
       </c>
+      <c r="D32">
+        <v>0.628</v>
+      </c>
+      <c r="E32">
+        <v>0.37</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>59.9</v>
+      </c>
+      <c r="K32">
+        <v>0.123</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -6174,6 +6600,27 @@
       <c r="C33">
         <v>0</v>
       </c>
+      <c r="D33">
+        <v>0.628</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>23.8</v>
+      </c>
+      <c r="K33">
+        <v>0.123</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -6225,6 +6672,36 @@
       <c r="B36">
         <v>0</v>
       </c>
+      <c r="C36">
+        <v>12.5</v>
+      </c>
+      <c r="D36">
+        <v>118.3</v>
+      </c>
+      <c r="E36">
+        <v>291.7</v>
+      </c>
+      <c r="F36">
+        <v>85.2</v>
+      </c>
+      <c r="G36">
+        <v>88.5</v>
+      </c>
+      <c r="H36">
+        <v>6.6</v>
+      </c>
+      <c r="I36">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="J36">
+        <v>6.8</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>35.700000000000003</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -6347,6 +6824,33 @@
       <c r="B40">
         <v>0</v>
       </c>
+      <c r="C40">
+        <v>13.7</v>
+      </c>
+      <c r="D40">
+        <v>121.4</v>
+      </c>
+      <c r="E40">
+        <v>314.2</v>
+      </c>
+      <c r="F40">
+        <v>82.2</v>
+      </c>
+      <c r="G40">
+        <v>89.2</v>
+      </c>
+      <c r="H40">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J40">
+        <v>6.7</v>
+      </c>
+      <c r="K40">
+        <v>10.8</v>
+      </c>
+      <c r="L40">
+        <v>128.9</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -6355,6 +6859,33 @@
       <c r="B41">
         <v>0</v>
       </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>121.5</v>
+      </c>
+      <c r="E41">
+        <v>329.8</v>
+      </c>
+      <c r="F41">
+        <v>101.2</v>
+      </c>
+      <c r="G41">
+        <v>89</v>
+      </c>
+      <c r="H41">
+        <v>61.9</v>
+      </c>
+      <c r="J41">
+        <v>6.7</v>
+      </c>
+      <c r="K41">
+        <v>14.8</v>
+      </c>
+      <c r="L41">
+        <v>157.80000000000001</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -6363,6 +6894,30 @@
       <c r="B42">
         <v>0</v>
       </c>
+      <c r="C42">
+        <v>13.5</v>
+      </c>
+      <c r="D42">
+        <v>118.2</v>
+      </c>
+      <c r="E42">
+        <v>321.7</v>
+      </c>
+      <c r="F42">
+        <v>83.4</v>
+      </c>
+      <c r="H42">
+        <v>81</v>
+      </c>
+      <c r="J42">
+        <v>7.2</v>
+      </c>
+      <c r="K42">
+        <v>22.2</v>
+      </c>
+      <c r="L42">
+        <v>212.5</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -6371,6 +6926,30 @@
       <c r="B43">
         <v>0</v>
       </c>
+      <c r="C43">
+        <v>12.8</v>
+      </c>
+      <c r="D43">
+        <v>121.3</v>
+      </c>
+      <c r="E43">
+        <v>340.9</v>
+      </c>
+      <c r="F43">
+        <v>93.1</v>
+      </c>
+      <c r="H43">
+        <v>108</v>
+      </c>
+      <c r="J43">
+        <v>5.9</v>
+      </c>
+      <c r="K43">
+        <v>26.6</v>
+      </c>
+      <c r="L43">
+        <v>249</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -6379,6 +6958,30 @@
       <c r="B44">
         <v>0</v>
       </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>121.5</v>
+      </c>
+      <c r="E44">
+        <v>336.2</v>
+      </c>
+      <c r="F44">
+        <v>80</v>
+      </c>
+      <c r="H44">
+        <v>130.1</v>
+      </c>
+      <c r="J44">
+        <v>7.7</v>
+      </c>
+      <c r="K44">
+        <v>34</v>
+      </c>
+      <c r="L44">
+        <v>318.10000000000002</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6427,6 +7030,36 @@
       <c r="A47">
         <v>50</v>
       </c>
+      <c r="C47">
+        <v>62</v>
+      </c>
+      <c r="D47">
+        <v>610.79999999999995</v>
+      </c>
+      <c r="E47">
+        <v>31.1</v>
+      </c>
+      <c r="F47">
+        <v>152.6</v>
+      </c>
+      <c r="G47">
+        <v>144.9</v>
+      </c>
+      <c r="H47">
+        <v>126.3</v>
+      </c>
+      <c r="I47">
+        <v>489.3</v>
+      </c>
+      <c r="J47">
+        <v>476.4</v>
+      </c>
+      <c r="K47">
+        <v>23.3</v>
+      </c>
+      <c r="L47">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -6534,25 +7167,151 @@
       <c r="A51">
         <v>150</v>
       </c>
+      <c r="C51">
+        <v>62</v>
+      </c>
+      <c r="D51">
+        <v>597</v>
+      </c>
+      <c r="E51">
+        <v>79.5</v>
+      </c>
+      <c r="F51">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="G51">
+        <v>144.6</v>
+      </c>
+      <c r="H51">
+        <v>166.6</v>
+      </c>
+      <c r="J51">
+        <v>536.4</v>
+      </c>
+      <c r="K51">
+        <v>60.6</v>
+      </c>
+      <c r="L51">
+        <v>112.2</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>175</v>
       </c>
+      <c r="C52">
+        <v>59.4</v>
+      </c>
+      <c r="D52">
+        <v>436.1</v>
+      </c>
+      <c r="E52">
+        <v>187.1</v>
+      </c>
+      <c r="F52">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="G52">
+        <v>158.5</v>
+      </c>
+      <c r="H52">
+        <v>176.2</v>
+      </c>
+      <c r="J52">
+        <v>676.3</v>
+      </c>
+      <c r="K52">
+        <v>62.7</v>
+      </c>
+      <c r="L52">
+        <v>207.8</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200</v>
       </c>
+      <c r="C53">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="D53">
+        <v>268</v>
+      </c>
+      <c r="E53">
+        <v>404.6</v>
+      </c>
+      <c r="F53">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="H53">
+        <v>178.3</v>
+      </c>
+      <c r="J53">
+        <v>361.2</v>
+      </c>
+      <c r="K53">
+        <v>62.8</v>
+      </c>
+      <c r="L53">
+        <v>57.8</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>225</v>
       </c>
+      <c r="C54">
+        <v>91.6</v>
+      </c>
+      <c r="D54">
+        <v>284.5</v>
+      </c>
+      <c r="E54">
+        <v>173.5</v>
+      </c>
+      <c r="F54">
+        <v>168.3</v>
+      </c>
+      <c r="H54">
+        <v>94.2</v>
+      </c>
+      <c r="J54">
+        <v>743.9</v>
+      </c>
+      <c r="K54">
+        <v>59</v>
+      </c>
+      <c r="L54">
+        <v>84.6</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>250</v>
+      </c>
+      <c r="C55">
+        <v>98.8</v>
+      </c>
+      <c r="D55">
+        <v>251</v>
+      </c>
+      <c r="E55">
+        <v>86.8</v>
+      </c>
+      <c r="F55">
+        <v>135.9</v>
+      </c>
+      <c r="H55">
+        <v>78</v>
+      </c>
+      <c r="J55">
+        <v>252.5</v>
+      </c>
+      <c r="K55">
+        <v>61.2</v>
+      </c>
+      <c r="L55">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6562,12 +7321,1631 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B630049D-DE6B-4F25-A217-CF3DD3A9EF65}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>12.1</v>
+      </c>
+      <c r="F3">
+        <v>13.6</v>
+      </c>
+      <c r="G3">
+        <v>16.2</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>12.8</v>
+      </c>
+      <c r="K3">
+        <v>3.2</v>
+      </c>
+      <c r="L3">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>13.5</v>
+      </c>
+      <c r="D4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E4" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L4" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>13.6</v>
+      </c>
+      <c r="D5">
+        <v>9.4</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>7.7</v>
+      </c>
+      <c r="G5">
+        <v>14.4</v>
+      </c>
+      <c r="H5">
+        <v>7.8</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>7.5</v>
+      </c>
+      <c r="L5">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>13.7</v>
+      </c>
+      <c r="D6">
+        <v>7.4</v>
+      </c>
+      <c r="E6">
+        <v>8.9</v>
+      </c>
+      <c r="F6">
+        <v>8.6</v>
+      </c>
+      <c r="G6">
+        <v>14.2</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>14.3</v>
+      </c>
+      <c r="K6">
+        <v>7.5</v>
+      </c>
+      <c r="L6">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>13.6</v>
+      </c>
+      <c r="D7">
+        <v>7.5</v>
+      </c>
+      <c r="E7">
+        <v>9.5</v>
+      </c>
+      <c r="F7">
+        <v>10.3</v>
+      </c>
+      <c r="G7">
+        <v>14.3</v>
+      </c>
+      <c r="H7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J7">
+        <v>12.4</v>
+      </c>
+      <c r="K7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L7">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>175</v>
+      </c>
+      <c r="C8">
+        <v>13.7</v>
+      </c>
+      <c r="D8">
+        <v>7.6</v>
+      </c>
+      <c r="E8">
+        <v>9.9</v>
+      </c>
+      <c r="F8">
+        <v>10.3</v>
+      </c>
+      <c r="G8">
+        <v>15.8</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>14.8</v>
+      </c>
+      <c r="K8">
+        <v>12.7</v>
+      </c>
+      <c r="L8">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>13.2</v>
+      </c>
+      <c r="D9">
+        <v>7.8</v>
+      </c>
+      <c r="E9">
+        <v>10.7</v>
+      </c>
+      <c r="F9">
+        <v>11.6</v>
+      </c>
+      <c r="H9">
+        <v>7.8</v>
+      </c>
+      <c r="J9">
+        <v>10.5</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>225</v>
+      </c>
+      <c r="C10">
+        <v>12.6</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>11.4</v>
+      </c>
+      <c r="F10">
+        <v>9.4</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="J10" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L10" s="4">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>250</v>
+      </c>
+      <c r="C11">
+        <v>13.2</v>
+      </c>
+      <c r="D11">
+        <v>8.4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>13.4</v>
+      </c>
+      <c r="K11" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="L11" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>24.2</v>
+      </c>
+      <c r="F14">
+        <v>26.2</v>
+      </c>
+      <c r="G14">
+        <v>27.5</v>
+      </c>
+      <c r="H14">
+        <v>28.4</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>9.1</v>
+      </c>
+      <c r="L14">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>24.7</v>
+      </c>
+      <c r="D15">
+        <v>33.1</v>
+      </c>
+      <c r="E15">
+        <v>23.1</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>28.1</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K15">
+        <v>19.3</v>
+      </c>
+      <c r="L15">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>24.8</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G16">
+        <v>25.8</v>
+      </c>
+      <c r="H16">
+        <v>17.3</v>
+      </c>
+      <c r="J16">
+        <v>31.9</v>
+      </c>
+      <c r="K16">
+        <v>16.2</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>125</v>
+      </c>
+      <c r="C17">
+        <v>24.9</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>21.7</v>
+      </c>
+      <c r="F17">
+        <v>21.5</v>
+      </c>
+      <c r="G17">
+        <v>25.2</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>46.4</v>
+      </c>
+      <c r="K17">
+        <v>16.2</v>
+      </c>
+      <c r="L17">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>24.8</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>23.3</v>
+      </c>
+      <c r="F18">
+        <v>25.4</v>
+      </c>
+      <c r="G18">
+        <v>26.1</v>
+      </c>
+      <c r="H18">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J18">
+        <v>27.8</v>
+      </c>
+      <c r="K18">
+        <v>17.7</v>
+      </c>
+      <c r="L18">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>175</v>
+      </c>
+      <c r="C19">
+        <v>25.3</v>
+      </c>
+      <c r="D19">
+        <v>17.5</v>
+      </c>
+      <c r="E19">
+        <v>23.7</v>
+      </c>
+      <c r="F19">
+        <v>25.6</v>
+      </c>
+      <c r="G19">
+        <v>27.8</v>
+      </c>
+      <c r="H19">
+        <v>18.8</v>
+      </c>
+      <c r="J19">
+        <v>27.4</v>
+      </c>
+      <c r="K19">
+        <v>22.7</v>
+      </c>
+      <c r="L19">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <v>25.8</v>
+      </c>
+      <c r="D20">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>27.6</v>
+      </c>
+      <c r="H20">
+        <v>18.7</v>
+      </c>
+      <c r="J20">
+        <v>24.3</v>
+      </c>
+      <c r="K20">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="L20">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>225</v>
+      </c>
+      <c r="C21">
+        <v>25.4</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>27.4</v>
+      </c>
+      <c r="F21">
+        <v>26.4</v>
+      </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L21">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>250</v>
+      </c>
+      <c r="C22">
+        <v>26.4</v>
+      </c>
+      <c r="D22">
+        <v>19.8</v>
+      </c>
+      <c r="E22">
+        <v>20.6</v>
+      </c>
+      <c r="F22">
+        <v>26.6</v>
+      </c>
+      <c r="H22">
+        <v>19.3</v>
+      </c>
+      <c r="J22">
+        <v>43.3</v>
+      </c>
+      <c r="K22">
+        <v>19.3</v>
+      </c>
+      <c r="L22">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>12.4</v>
+      </c>
+      <c r="J25">
+        <v>8.1</v>
+      </c>
+      <c r="K25">
+        <v>53.6</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="E26">
+        <v>3.4</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="J26">
+        <v>1.4</v>
+      </c>
+      <c r="K26">
+        <v>20.9</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.74</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>23</v>
+      </c>
+      <c r="J27">
+        <v>7.7</v>
+      </c>
+      <c r="K27">
+        <v>3.8</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>125</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1.7</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="J28">
+        <v>20.6</v>
+      </c>
+      <c r="K28">
+        <v>1.9</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>150</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1.7</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J29">
+        <v>8.1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>175</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1.7</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>13.7</v>
+      </c>
+      <c r="K30">
+        <v>0.7</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>200</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1.8</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J31">
+        <v>11.5</v>
+      </c>
+      <c r="K31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>225</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1.8</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>10.5</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>250</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8.1</v>
+      </c>
+      <c r="K33">
+        <v>0.3</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>11.1</v>
+      </c>
+      <c r="D36">
+        <v>115.1</v>
+      </c>
+      <c r="E36">
+        <v>347.3</v>
+      </c>
+      <c r="F36">
+        <v>83.4</v>
+      </c>
+      <c r="G36">
+        <v>87.8</v>
+      </c>
+      <c r="H36">
+        <v>8.1</v>
+      </c>
+      <c r="J36">
+        <v>8.4</v>
+      </c>
+      <c r="K36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L36">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>12.7</v>
+      </c>
+      <c r="D37">
+        <v>147.4</v>
+      </c>
+      <c r="E37">
+        <v>347</v>
+      </c>
+      <c r="F37">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="G37">
+        <v>91.9</v>
+      </c>
+      <c r="H37">
+        <v>10.6</v>
+      </c>
+      <c r="J37">
+        <v>10.1</v>
+      </c>
+      <c r="K37">
+        <v>2.6</v>
+      </c>
+      <c r="L37">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>16.8</v>
+      </c>
+      <c r="D38">
+        <v>176.5</v>
+      </c>
+      <c r="E38">
+        <v>349.5</v>
+      </c>
+      <c r="F38">
+        <v>82.4</v>
+      </c>
+      <c r="G38">
+        <v>90.4</v>
+      </c>
+      <c r="H38">
+        <v>19</v>
+      </c>
+      <c r="J38">
+        <v>7.8</v>
+      </c>
+      <c r="K38">
+        <v>4.2</v>
+      </c>
+      <c r="L38">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>125</v>
+      </c>
+      <c r="C39">
+        <v>14.4</v>
+      </c>
+      <c r="D39">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="E39">
+        <v>322.8</v>
+      </c>
+      <c r="F39">
+        <v>104.2</v>
+      </c>
+      <c r="G39">
+        <v>90</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="J39">
+        <v>7.8</v>
+      </c>
+      <c r="K39">
+        <v>6.2</v>
+      </c>
+      <c r="L39">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>150</v>
+      </c>
+      <c r="C40">
+        <v>11.8</v>
+      </c>
+      <c r="D40">
+        <v>125.5</v>
+      </c>
+      <c r="E40">
+        <v>329</v>
+      </c>
+      <c r="F40">
+        <v>85.1</v>
+      </c>
+      <c r="G40">
+        <v>97.5</v>
+      </c>
+      <c r="H40">
+        <v>41.4</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>10.4</v>
+      </c>
+      <c r="L40">
+        <v>123.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>175</v>
+      </c>
+      <c r="C41">
+        <v>14.2</v>
+      </c>
+      <c r="D41">
+        <v>125.1</v>
+      </c>
+      <c r="E41">
+        <v>339.6</v>
+      </c>
+      <c r="F41">
+        <v>98.8</v>
+      </c>
+      <c r="G41">
+        <v>91.3</v>
+      </c>
+      <c r="H41">
+        <v>59.6</v>
+      </c>
+      <c r="J41">
+        <v>7.9</v>
+      </c>
+      <c r="K41">
+        <v>16.5</v>
+      </c>
+      <c r="L41">
+        <v>187.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>200</v>
+      </c>
+      <c r="C42">
+        <v>12.8</v>
+      </c>
+      <c r="D42">
+        <v>124.4</v>
+      </c>
+      <c r="E42">
+        <v>338.5</v>
+      </c>
+      <c r="F42">
+        <v>82.5</v>
+      </c>
+      <c r="H42">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="J42">
+        <v>8.9</v>
+      </c>
+      <c r="K42">
+        <v>20.7</v>
+      </c>
+      <c r="L42">
+        <v>202.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>225</v>
+      </c>
+      <c r="C43">
+        <v>12.7</v>
+      </c>
+      <c r="D43">
+        <v>122</v>
+      </c>
+      <c r="E43">
+        <v>336.5</v>
+      </c>
+      <c r="F43">
+        <v>90.7</v>
+      </c>
+      <c r="H43">
+        <v>105</v>
+      </c>
+      <c r="J43">
+        <v>7.9</v>
+      </c>
+      <c r="K43">
+        <v>29.5</v>
+      </c>
+      <c r="L43">
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>250</v>
+      </c>
+      <c r="C44">
+        <v>11.9</v>
+      </c>
+      <c r="D44">
+        <v>124.5</v>
+      </c>
+      <c r="E44">
+        <v>337.8</v>
+      </c>
+      <c r="F44">
+        <v>80.8</v>
+      </c>
+      <c r="H44">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="J44">
+        <v>8.9</v>
+      </c>
+      <c r="K44">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="L44">
+        <v>320.39999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>189.7</v>
+      </c>
+      <c r="D47">
+        <v>565.29999999999995</v>
+      </c>
+      <c r="E47">
+        <v>191</v>
+      </c>
+      <c r="F47">
+        <v>211.8</v>
+      </c>
+      <c r="G47">
+        <v>138</v>
+      </c>
+      <c r="H47">
+        <v>104.5</v>
+      </c>
+      <c r="J47">
+        <v>245.9</v>
+      </c>
+      <c r="K47">
+        <v>69.7</v>
+      </c>
+      <c r="L47">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>147.6</v>
+      </c>
+      <c r="D48">
+        <v>512.79999999999995</v>
+      </c>
+      <c r="E48">
+        <v>194.3</v>
+      </c>
+      <c r="F48">
+        <v>197.8</v>
+      </c>
+      <c r="G48">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="H48">
+        <v>100.5</v>
+      </c>
+      <c r="J48">
+        <v>477.9</v>
+      </c>
+      <c r="K48">
+        <v>197.5</v>
+      </c>
+      <c r="L48">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>147.5</v>
+      </c>
+      <c r="D49">
+        <v>513.6</v>
+      </c>
+      <c r="E49">
+        <v>170.8</v>
+      </c>
+      <c r="F49">
+        <v>99.7</v>
+      </c>
+      <c r="G49">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="H49">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="J49">
+        <v>401.5</v>
+      </c>
+      <c r="K49">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="L49">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>125</v>
+      </c>
+      <c r="C50">
+        <v>147.5</v>
+      </c>
+      <c r="D50">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="E50">
+        <v>97.6</v>
+      </c>
+      <c r="F50">
+        <v>127.8</v>
+      </c>
+      <c r="G50">
+        <v>158.9</v>
+      </c>
+      <c r="H50">
+        <v>75</v>
+      </c>
+      <c r="J50">
+        <v>665.4</v>
+      </c>
+      <c r="K50">
+        <v>72.2</v>
+      </c>
+      <c r="L50">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>150</v>
+      </c>
+      <c r="C51">
+        <v>147.6</v>
+      </c>
+      <c r="D51">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="E51">
+        <v>184.3</v>
+      </c>
+      <c r="F51">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="G51">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="H51">
+        <v>72.7</v>
+      </c>
+      <c r="J51">
+        <v>93.7</v>
+      </c>
+      <c r="K51">
+        <v>72.2</v>
+      </c>
+      <c r="L51">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>175</v>
+      </c>
+      <c r="C52">
+        <v>147.6</v>
+      </c>
+      <c r="D52">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E52">
+        <v>181.4</v>
+      </c>
+      <c r="F52">
+        <v>254.3</v>
+      </c>
+      <c r="G52">
+        <v>131.9</v>
+      </c>
+      <c r="H52">
+        <v>72.3</v>
+      </c>
+      <c r="J52">
+        <v>169.4</v>
+      </c>
+      <c r="K52">
+        <v>73</v>
+      </c>
+      <c r="L52">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>200</v>
+      </c>
+      <c r="C53">
+        <v>164.9</v>
+      </c>
+      <c r="D53">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="E53">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="F53">
+        <v>254.8</v>
+      </c>
+      <c r="H53">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="J53">
+        <v>148</v>
+      </c>
+      <c r="K53">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="L53">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>225</v>
+      </c>
+      <c r="C54">
+        <v>170</v>
+      </c>
+      <c r="D54">
+        <v>80.5</v>
+      </c>
+      <c r="E54">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="F54">
+        <v>230.7</v>
+      </c>
+      <c r="H54">
+        <v>71</v>
+      </c>
+      <c r="J54">
+        <v>427.1</v>
+      </c>
+      <c r="K54">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="L54">
+        <v>233.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>250</v>
+      </c>
+      <c r="C55">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="D55">
+        <v>80.3</v>
+      </c>
+      <c r="E55">
+        <v>77.8</v>
+      </c>
+      <c r="F55">
+        <v>285.3</v>
+      </c>
+      <c r="H55">
+        <v>71</v>
+      </c>
+      <c r="J55">
+        <v>595.9</v>
+      </c>
+      <c r="K55">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="L55">
+        <v>219.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/Трекеры.xlsx
+++ b/results/Трекеры.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\database\fluovisor\FLUOVISOR2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651DFDA8-C4E9-4F6D-BF6C-710C8A8F04FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C3A410-9AD5-44DE-A8DD-F821CC605B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="4" xr2:uid="{BD39AE1D-B893-4B9B-9048-7F34F8B4E062}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="2" xr2:uid="{BD39AE1D-B893-4B9B-9048-7F34F8B4E062}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="51">
   <si>
     <t xml:space="preserve">CV Trackes </t>
   </si>
@@ -4013,10 +4013,3366 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F9BEC9-80BD-485E-9273-9DE3377F3B81}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>9.5</v>
+      </c>
+      <c r="D3">
+        <v>25.9</v>
+      </c>
+      <c r="E3">
+        <v>5.9</v>
+      </c>
+      <c r="F3">
+        <v>8.4</v>
+      </c>
+      <c r="G3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H3">
+        <v>10.3</v>
+      </c>
+      <c r="I3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K3">
+        <v>2.9</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>7.1</v>
+      </c>
+      <c r="D4">
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>7.5</v>
+      </c>
+      <c r="D5">
+        <v>4.5</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>6.1</v>
+      </c>
+      <c r="I5">
+        <v>34</v>
+      </c>
+      <c r="J5">
+        <v>5.5</v>
+      </c>
+      <c r="K5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>7.2</v>
+      </c>
+      <c r="D6">
+        <v>4.2</v>
+      </c>
+      <c r="E6">
+        <v>6.9</v>
+      </c>
+      <c r="F6">
+        <v>5.2</v>
+      </c>
+      <c r="G6">
+        <v>14.4</v>
+      </c>
+      <c r="H6">
+        <v>6.4</v>
+      </c>
+      <c r="I6">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>6.5</v>
+      </c>
+      <c r="K6">
+        <v>5.3</v>
+      </c>
+      <c r="L6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>23.7</v>
+      </c>
+      <c r="E7">
+        <v>7.8</v>
+      </c>
+      <c r="F7">
+        <v>5.6</v>
+      </c>
+      <c r="G7">
+        <v>12.1</v>
+      </c>
+      <c r="H7">
+        <v>6.5</v>
+      </c>
+      <c r="I7">
+        <v>47.2</v>
+      </c>
+      <c r="J7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K7">
+        <v>5.4</v>
+      </c>
+      <c r="L7">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>175</v>
+      </c>
+      <c r="C8">
+        <v>7.2</v>
+      </c>
+      <c r="D8">
+        <v>25.7</v>
+      </c>
+      <c r="E8">
+        <v>7.8</v>
+      </c>
+      <c r="F8">
+        <v>5.3</v>
+      </c>
+      <c r="G8">
+        <v>12.5</v>
+      </c>
+      <c r="H8">
+        <v>6.5</v>
+      </c>
+      <c r="I8">
+        <v>48.9</v>
+      </c>
+      <c r="J8">
+        <v>5.8</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>7.2</v>
+      </c>
+      <c r="D9">
+        <v>25.4</v>
+      </c>
+      <c r="E9">
+        <v>13.2</v>
+      </c>
+      <c r="F9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>6.5</v>
+      </c>
+      <c r="I9">
+        <v>49.3</v>
+      </c>
+      <c r="J9">
+        <v>6.1</v>
+      </c>
+      <c r="K9">
+        <v>5.4</v>
+      </c>
+      <c r="L9">
+        <v>6.4</v>
+      </c>
+      <c r="M9">
+        <f>MIN(C3:L9)</f>
+        <v>2.9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>23.8</v>
+      </c>
+      <c r="D14">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>15.8</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>28.5</v>
+      </c>
+      <c r="H14">
+        <v>26.7</v>
+      </c>
+      <c r="I14">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J14">
+        <v>9.6</v>
+      </c>
+      <c r="K14">
+        <v>7.7</v>
+      </c>
+      <c r="L14">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>31.5</v>
+      </c>
+      <c r="E15">
+        <v>25.9</v>
+      </c>
+      <c r="F15">
+        <v>17.5</v>
+      </c>
+      <c r="G15">
+        <v>25.3</v>
+      </c>
+      <c r="H15">
+        <v>14.6</v>
+      </c>
+      <c r="I15">
+        <v>47.8</v>
+      </c>
+      <c r="J15">
+        <v>16.5</v>
+      </c>
+      <c r="K15">
+        <v>18.7</v>
+      </c>
+      <c r="L15">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D16">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>20.8</v>
+      </c>
+      <c r="G16">
+        <v>25.7</v>
+      </c>
+      <c r="H16">
+        <v>13.7</v>
+      </c>
+      <c r="I16">
+        <v>51</v>
+      </c>
+      <c r="J16">
+        <v>10.7</v>
+      </c>
+      <c r="K16">
+        <v>7.9</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>125</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>9.1</v>
+      </c>
+      <c r="E17">
+        <v>36.9</v>
+      </c>
+      <c r="F17">
+        <v>11.8</v>
+      </c>
+      <c r="G17">
+        <v>25.3</v>
+      </c>
+      <c r="H17">
+        <v>44.1</v>
+      </c>
+      <c r="I17">
+        <v>64.2</v>
+      </c>
+      <c r="J17">
+        <v>11.6</v>
+      </c>
+      <c r="K17">
+        <v>10.3</v>
+      </c>
+      <c r="L17">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F18">
+        <v>15.2</v>
+      </c>
+      <c r="G18">
+        <v>22.1</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>80.5</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L18">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>175</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>45.5</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>12.1</v>
+      </c>
+      <c r="G19">
+        <v>22.1</v>
+      </c>
+      <c r="H19">
+        <v>13.3</v>
+      </c>
+      <c r="I19">
+        <v>75.5</v>
+      </c>
+      <c r="J19">
+        <v>11.8</v>
+      </c>
+      <c r="K19">
+        <v>15.4</v>
+      </c>
+      <c r="L19">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="D20">
+        <v>41.8</v>
+      </c>
+      <c r="E20">
+        <v>33.4</v>
+      </c>
+      <c r="F20">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20">
+        <v>13.9</v>
+      </c>
+      <c r="I20">
+        <v>87.4</v>
+      </c>
+      <c r="J20">
+        <v>11.6</v>
+      </c>
+      <c r="K20">
+        <v>9.9</v>
+      </c>
+      <c r="L20">
+        <v>13.2</v>
+      </c>
+      <c r="M20">
+        <f>MIN(C14:L20)</f>
+        <v>7.7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>32.6</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>33.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K25">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>75</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2.9</v>
+      </c>
+      <c r="E26">
+        <v>1.4</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>23.8</v>
+      </c>
+      <c r="I26">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>24.4</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E27">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>17.3</v>
+      </c>
+      <c r="I27">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="J27">
+        <v>2.6989999999999998</v>
+      </c>
+      <c r="K27">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>125</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>23.8</v>
+      </c>
+      <c r="E28">
+        <v>0.37</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1.7</v>
+      </c>
+      <c r="I28">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="J28">
+        <v>2.7</v>
+      </c>
+      <c r="K28">
+        <v>2.9</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>150</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>18.8</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>175</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.9</v>
+      </c>
+      <c r="J30">
+        <v>3.2</v>
+      </c>
+      <c r="K30">
+        <v>0.9</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0.13</v>
+      </c>
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1.3</v>
+      </c>
+      <c r="J31">
+        <v>6.8</v>
+      </c>
+      <c r="K31">
+        <v>2.95</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>225</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>250</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>10.9</v>
+      </c>
+      <c r="D36">
+        <v>121</v>
+      </c>
+      <c r="E36">
+        <v>345.9</v>
+      </c>
+      <c r="F36">
+        <v>85.3</v>
+      </c>
+      <c r="G36">
+        <v>92.9</v>
+      </c>
+      <c r="H36">
+        <v>6.1</v>
+      </c>
+      <c r="I36">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="J36">
+        <v>7.8</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>13.9</v>
+      </c>
+      <c r="D37">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="E37">
+        <v>365.6</v>
+      </c>
+      <c r="F37">
+        <v>138</v>
+      </c>
+      <c r="G37">
+        <v>90.8</v>
+      </c>
+      <c r="H37">
+        <v>14.7</v>
+      </c>
+      <c r="I37">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="J37">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K37">
+        <v>3.4</v>
+      </c>
+      <c r="L37">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>11.3</v>
+      </c>
+      <c r="D38">
+        <v>52.4</v>
+      </c>
+      <c r="E38">
+        <v>342.6</v>
+      </c>
+      <c r="F38">
+        <v>91</v>
+      </c>
+      <c r="G38">
+        <v>80</v>
+      </c>
+      <c r="H38">
+        <v>21.3</v>
+      </c>
+      <c r="I38">
+        <v>124.2</v>
+      </c>
+      <c r="J38">
+        <v>7.1</v>
+      </c>
+      <c r="K38">
+        <v>4.5</v>
+      </c>
+      <c r="L38">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>125</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>11.6</v>
+      </c>
+      <c r="D39">
+        <v>109</v>
+      </c>
+      <c r="E39">
+        <v>323.10000000000002</v>
+      </c>
+      <c r="F39">
+        <v>115.6</v>
+      </c>
+      <c r="G39">
+        <v>96.3</v>
+      </c>
+      <c r="H39">
+        <v>30.6</v>
+      </c>
+      <c r="I39">
+        <v>122.76</v>
+      </c>
+      <c r="J39">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K39">
+        <v>6.6</v>
+      </c>
+      <c r="L39">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>150</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>121.9</v>
+      </c>
+      <c r="E40">
+        <v>343.2</v>
+      </c>
+      <c r="F40">
+        <v>84.4</v>
+      </c>
+      <c r="G40">
+        <v>90.4</v>
+      </c>
+      <c r="H40">
+        <v>46.2</v>
+      </c>
+      <c r="I40">
+        <v>115.4</v>
+      </c>
+      <c r="J40">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K40">
+        <v>10.1</v>
+      </c>
+      <c r="L40">
+        <v>122.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>175</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>12.2</v>
+      </c>
+      <c r="D41">
+        <v>121.1</v>
+      </c>
+      <c r="E41">
+        <v>336.9</v>
+      </c>
+      <c r="F41">
+        <v>97.5</v>
+      </c>
+      <c r="G41">
+        <v>100.7</v>
+      </c>
+      <c r="H41">
+        <v>62.2</v>
+      </c>
+      <c r="I41">
+        <v>122.8</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>15.5</v>
+      </c>
+      <c r="L41">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>200</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>14.8</v>
+      </c>
+      <c r="D42">
+        <v>143.4</v>
+      </c>
+      <c r="E42">
+        <v>331.6</v>
+      </c>
+      <c r="F42">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42">
+        <v>80.2</v>
+      </c>
+      <c r="I42">
+        <v>122</v>
+      </c>
+      <c r="J42">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K42">
+        <v>19.3</v>
+      </c>
+      <c r="L42">
+        <v>216.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>225</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>250</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>369.8</v>
+      </c>
+      <c r="D47">
+        <v>554.29999999999995</v>
+      </c>
+      <c r="E47">
+        <v>188.6</v>
+      </c>
+      <c r="F47">
+        <v>155.4</v>
+      </c>
+      <c r="G47">
+        <v>180.8</v>
+      </c>
+      <c r="H47">
+        <v>128.6</v>
+      </c>
+      <c r="I47">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="J47">
+        <v>31</v>
+      </c>
+      <c r="K47">
+        <v>45.1</v>
+      </c>
+      <c r="L47">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>355.8</v>
+      </c>
+      <c r="D48">
+        <v>31.5</v>
+      </c>
+      <c r="E48">
+        <v>278.89999999999998</v>
+      </c>
+      <c r="F48">
+        <v>246.8</v>
+      </c>
+      <c r="G48">
+        <v>184.5</v>
+      </c>
+      <c r="H48">
+        <v>68.2</v>
+      </c>
+      <c r="I48">
+        <v>336.6</v>
+      </c>
+      <c r="J48">
+        <v>192.2</v>
+      </c>
+      <c r="K48">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="L48">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>217.9</v>
+      </c>
+      <c r="D49">
+        <v>34.5</v>
+      </c>
+      <c r="E49">
+        <v>270</v>
+      </c>
+      <c r="F49">
+        <v>245.6</v>
+      </c>
+      <c r="G49">
+        <v>164.5</v>
+      </c>
+      <c r="H49">
+        <v>63.8</v>
+      </c>
+      <c r="I49">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="J49">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K49">
+        <v>19.2</v>
+      </c>
+      <c r="L49">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>125</v>
+      </c>
+      <c r="C50">
+        <v>206</v>
+      </c>
+      <c r="D50">
+        <v>39.5</v>
+      </c>
+      <c r="E50">
+        <v>803.6</v>
+      </c>
+      <c r="F50">
+        <v>64</v>
+      </c>
+      <c r="G50">
+        <v>153.6</v>
+      </c>
+      <c r="H50">
+        <v>44.1</v>
+      </c>
+      <c r="I50">
+        <v>139</v>
+      </c>
+      <c r="J50">
+        <v>41.4</v>
+      </c>
+      <c r="K50">
+        <v>28.3</v>
+      </c>
+      <c r="L50">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>150</v>
+      </c>
+      <c r="C51">
+        <v>250.7</v>
+      </c>
+      <c r="D51">
+        <v>548.5</v>
+      </c>
+      <c r="E51">
+        <v>259.7</v>
+      </c>
+      <c r="F51">
+        <v>166.7</v>
+      </c>
+      <c r="G51">
+        <v>115.6</v>
+      </c>
+      <c r="H51">
+        <v>44.3</v>
+      </c>
+      <c r="I51">
+        <v>327.7</v>
+      </c>
+      <c r="J51">
+        <v>45.1</v>
+      </c>
+      <c r="K51">
+        <v>28</v>
+      </c>
+      <c r="L51">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>175</v>
+      </c>
+      <c r="C52">
+        <v>223.6</v>
+      </c>
+      <c r="D52">
+        <v>638</v>
+      </c>
+      <c r="E52">
+        <v>256.3</v>
+      </c>
+      <c r="F52">
+        <v>82.1</v>
+      </c>
+      <c r="G52">
+        <v>138.1</v>
+      </c>
+      <c r="H52">
+        <v>42.4</v>
+      </c>
+      <c r="I52">
+        <v>184.9</v>
+      </c>
+      <c r="J52">
+        <v>46.7</v>
+      </c>
+      <c r="K52">
+        <v>29.8</v>
+      </c>
+      <c r="L52">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>200</v>
+      </c>
+      <c r="C53">
+        <v>222.7</v>
+      </c>
+      <c r="D53">
+        <v>534.1</v>
+      </c>
+      <c r="E53">
+        <v>627</v>
+      </c>
+      <c r="F53">
+        <v>222.9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>43</v>
+      </c>
+      <c r="H53">
+        <v>56.5</v>
+      </c>
+      <c r="I53">
+        <v>292</v>
+      </c>
+      <c r="J53">
+        <v>48.5</v>
+      </c>
+      <c r="K53">
+        <v>26.2</v>
+      </c>
+      <c r="L53">
+        <v>53.6</v>
+      </c>
+      <c r="M53">
+        <f>MIN(C47:L53)</f>
+        <v>19.2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB401CC2-68A4-4843-A4D9-B6990517B94D}">
+  <dimension ref="A1:N55"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>6.9</v>
+      </c>
+      <c r="D3">
+        <v>46.5</v>
+      </c>
+      <c r="E3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>16.5</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>21.5</v>
+      </c>
+      <c r="K3">
+        <v>3.1</v>
+      </c>
+      <c r="L3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>6.7</v>
+      </c>
+      <c r="D4">
+        <v>6.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="J4" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="L4" s="4">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>6.6</v>
+      </c>
+      <c r="D5">
+        <v>6.5</v>
+      </c>
+      <c r="E5">
+        <v>5.8</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>15.2</v>
+      </c>
+      <c r="H5">
+        <v>16.5</v>
+      </c>
+      <c r="I5">
+        <v>56.2</v>
+      </c>
+      <c r="J5">
+        <v>9.9</v>
+      </c>
+      <c r="K5">
+        <v>5.5</v>
+      </c>
+      <c r="L5">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>7.3</v>
+      </c>
+      <c r="D6">
+        <v>11.2</v>
+      </c>
+      <c r="E6">
+        <v>7.7</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>12.8</v>
+      </c>
+      <c r="I6">
+        <v>52.07</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>8.4</v>
+      </c>
+      <c r="D7">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E7">
+        <v>7.9</v>
+      </c>
+      <c r="F7">
+        <v>7.8</v>
+      </c>
+      <c r="G7">
+        <v>12.5</v>
+      </c>
+      <c r="H7">
+        <v>12.2</v>
+      </c>
+      <c r="J7">
+        <v>11.8</v>
+      </c>
+      <c r="K7">
+        <v>7.2</v>
+      </c>
+      <c r="L7">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>175</v>
+      </c>
+      <c r="C8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D8">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E8">
+        <v>7.4</v>
+      </c>
+      <c r="F8">
+        <v>8.4</v>
+      </c>
+      <c r="G8">
+        <v>15.9</v>
+      </c>
+      <c r="H8">
+        <v>12.5</v>
+      </c>
+      <c r="J8">
+        <v>20.6</v>
+      </c>
+      <c r="K8">
+        <v>11.3</v>
+      </c>
+      <c r="L8">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>11.6</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F9">
+        <v>7.5</v>
+      </c>
+      <c r="H9">
+        <v>12.6</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>7.2</v>
+      </c>
+      <c r="L9">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>225</v>
+      </c>
+      <c r="C10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D10">
+        <v>15.5</v>
+      </c>
+      <c r="E10">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H10">
+        <v>8.1</v>
+      </c>
+      <c r="J10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K10">
+        <v>6.8</v>
+      </c>
+      <c r="L10">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>250</v>
+      </c>
+      <c r="C11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D11">
+        <v>14.4</v>
+      </c>
+      <c r="E11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F11">
+        <v>6.7</v>
+      </c>
+      <c r="H11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J11">
+        <v>10.9</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>8.4</v>
+      </c>
+      <c r="M11">
+        <f>MIN(C3:L11)</f>
+        <v>3.1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>15.3</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>10.5</v>
+      </c>
+      <c r="F14">
+        <v>19.8</v>
+      </c>
+      <c r="G14">
+        <v>31.4</v>
+      </c>
+      <c r="H14">
+        <v>30.5</v>
+      </c>
+      <c r="I14">
+        <v>55.6</v>
+      </c>
+      <c r="J14">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>6.7</v>
+      </c>
+      <c r="L14">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>14.1</v>
+      </c>
+      <c r="D15">
+        <v>13.2</v>
+      </c>
+      <c r="E15">
+        <v>15.7</v>
+      </c>
+      <c r="F15">
+        <v>24.3</v>
+      </c>
+      <c r="G15">
+        <v>27.8</v>
+      </c>
+      <c r="H15">
+        <v>29.5</v>
+      </c>
+      <c r="I15">
+        <v>81.2</v>
+      </c>
+      <c r="J15">
+        <v>44</v>
+      </c>
+      <c r="K15">
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>14.4</v>
+      </c>
+      <c r="D16">
+        <v>14.1</v>
+      </c>
+      <c r="E16">
+        <v>12.6</v>
+      </c>
+      <c r="F16">
+        <v>21.9</v>
+      </c>
+      <c r="G16">
+        <v>25.7</v>
+      </c>
+      <c r="H16">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>90.5</v>
+      </c>
+      <c r="J16">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>12.3</v>
+      </c>
+      <c r="L16">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>125</v>
+      </c>
+      <c r="C17">
+        <v>15.5</v>
+      </c>
+      <c r="D17">
+        <v>33.4</v>
+      </c>
+      <c r="E17">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F17">
+        <v>17.8</v>
+      </c>
+      <c r="G17">
+        <v>25.5</v>
+      </c>
+      <c r="H17">
+        <v>41.7</v>
+      </c>
+      <c r="I17">
+        <v>92.9</v>
+      </c>
+      <c r="J17">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>16.5</v>
+      </c>
+      <c r="D18">
+        <v>33.4</v>
+      </c>
+      <c r="E18">
+        <v>18.3</v>
+      </c>
+      <c r="F18">
+        <v>23.2</v>
+      </c>
+      <c r="G18">
+        <v>23.9</v>
+      </c>
+      <c r="H18">
+        <v>23.5</v>
+      </c>
+      <c r="J18">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>175</v>
+      </c>
+      <c r="C19">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D19">
+        <v>39.1</v>
+      </c>
+      <c r="E19">
+        <v>21.2</v>
+      </c>
+      <c r="F19">
+        <v>23.5</v>
+      </c>
+      <c r="G19">
+        <v>27.3</v>
+      </c>
+      <c r="H19">
+        <v>23.5</v>
+      </c>
+      <c r="J19">
+        <v>38.9</v>
+      </c>
+      <c r="K19">
+        <v>21.7</v>
+      </c>
+      <c r="L19">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <v>21.6</v>
+      </c>
+      <c r="D20">
+        <v>28.6</v>
+      </c>
+      <c r="E20">
+        <v>21.4</v>
+      </c>
+      <c r="F20">
+        <v>19.2</v>
+      </c>
+      <c r="H20">
+        <v>23.6</v>
+      </c>
+      <c r="J20">
+        <v>42.7</v>
+      </c>
+      <c r="K20">
+        <v>17.5</v>
+      </c>
+      <c r="L20">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>225</v>
+      </c>
+      <c r="C21">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D21">
+        <v>29.1</v>
+      </c>
+      <c r="E21">
+        <v>22.4</v>
+      </c>
+      <c r="F21">
+        <v>25.5</v>
+      </c>
+      <c r="H21">
+        <v>20.8</v>
+      </c>
+      <c r="J21">
+        <v>43.1</v>
+      </c>
+      <c r="K21">
+        <v>16.7</v>
+      </c>
+      <c r="L21">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>250</v>
+      </c>
+      <c r="C22">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>17.3</v>
+      </c>
+      <c r="H22">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J22">
+        <v>34.5</v>
+      </c>
+      <c r="K22">
+        <v>17.2</v>
+      </c>
+      <c r="L22">
+        <v>18.5</v>
+      </c>
+      <c r="M22">
+        <f>MIN(C14:L22)</f>
+        <v>6.7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>14.1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>5.3</v>
+      </c>
+      <c r="J25">
+        <v>27.6</v>
+      </c>
+      <c r="K25">
+        <v>55.3</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>75</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E26">
+        <v>23.3</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J26">
+        <v>33.4</v>
+      </c>
+      <c r="K26">
+        <v>31.3</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1.35</v>
+      </c>
+      <c r="E27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J27">
+        <v>40.9</v>
+      </c>
+      <c r="K27">
+        <v>5.3</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>125</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0.245</v>
+      </c>
+      <c r="E28">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.24</v>
+      </c>
+      <c r="I28">
+        <v>4.5</v>
+      </c>
+      <c r="J28">
+        <v>46.4</v>
+      </c>
+      <c r="K28">
+        <v>2.7</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>150</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.245</v>
+      </c>
+      <c r="E29">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>37.4</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>175</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.37</v>
+      </c>
+      <c r="E30">
+        <v>0.98</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0.628</v>
+      </c>
+      <c r="E31">
+        <v>0.37</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="K31">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>225</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0.628</v>
+      </c>
+      <c r="E32">
+        <v>0.37</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>59.9</v>
+      </c>
+      <c r="K32">
+        <v>0.123</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>250</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.628</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>23.8</v>
+      </c>
+      <c r="K33">
+        <v>0.123</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>12.5</v>
+      </c>
+      <c r="D36">
+        <v>118.3</v>
+      </c>
+      <c r="E36">
+        <v>291.7</v>
+      </c>
+      <c r="F36">
+        <v>85.2</v>
+      </c>
+      <c r="G36">
+        <v>88.5</v>
+      </c>
+      <c r="H36">
+        <v>6.6</v>
+      </c>
+      <c r="I36">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="J36">
+        <v>6.8</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>11.3</v>
+      </c>
+      <c r="D37">
+        <v>149</v>
+      </c>
+      <c r="E37">
+        <v>326</v>
+      </c>
+      <c r="F37">
+        <v>133</v>
+      </c>
+      <c r="G37">
+        <v>94.3</v>
+      </c>
+      <c r="H37">
+        <v>12.9</v>
+      </c>
+      <c r="I37">
+        <v>109.4</v>
+      </c>
+      <c r="J37">
+        <v>7.1</v>
+      </c>
+      <c r="K37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L37">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>211.8</v>
+      </c>
+      <c r="E38">
+        <v>327.39999999999998</v>
+      </c>
+      <c r="F38">
+        <v>91.9</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>22.1</v>
+      </c>
+      <c r="I38">
+        <v>133.1</v>
+      </c>
+      <c r="J38">
+        <v>9.4</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>125</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>14.3</v>
+      </c>
+      <c r="D39">
+        <v>116.95</v>
+      </c>
+      <c r="E39">
+        <v>329.9</v>
+      </c>
+      <c r="F39">
+        <v>107.2</v>
+      </c>
+      <c r="G39">
+        <v>95.2</v>
+      </c>
+      <c r="H39">
+        <v>35</v>
+      </c>
+      <c r="I39">
+        <v>122.76</v>
+      </c>
+      <c r="J39">
+        <v>6.5</v>
+      </c>
+      <c r="K39">
+        <v>8.6</v>
+      </c>
+      <c r="L39">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>150</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>13.7</v>
+      </c>
+      <c r="D40">
+        <v>121.4</v>
+      </c>
+      <c r="E40">
+        <v>314.2</v>
+      </c>
+      <c r="F40">
+        <v>82.2</v>
+      </c>
+      <c r="G40">
+        <v>89.2</v>
+      </c>
+      <c r="H40">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="J40">
+        <v>6.7</v>
+      </c>
+      <c r="K40">
+        <v>10.8</v>
+      </c>
+      <c r="L40">
+        <v>128.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>175</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>121.5</v>
+      </c>
+      <c r="E41">
+        <v>329.8</v>
+      </c>
+      <c r="F41">
+        <v>101.2</v>
+      </c>
+      <c r="G41">
+        <v>89</v>
+      </c>
+      <c r="H41">
+        <v>61.9</v>
+      </c>
+      <c r="J41">
+        <v>6.7</v>
+      </c>
+      <c r="K41">
+        <v>14.8</v>
+      </c>
+      <c r="L41">
+        <v>157.80000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>200</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>13.5</v>
+      </c>
+      <c r="D42">
+        <v>118.2</v>
+      </c>
+      <c r="E42">
+        <v>321.7</v>
+      </c>
+      <c r="F42">
+        <v>83.4</v>
+      </c>
+      <c r="H42">
+        <v>81</v>
+      </c>
+      <c r="J42">
+        <v>7.2</v>
+      </c>
+      <c r="K42">
+        <v>22.2</v>
+      </c>
+      <c r="L42">
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>225</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>12.8</v>
+      </c>
+      <c r="D43">
+        <v>121.3</v>
+      </c>
+      <c r="E43">
+        <v>340.9</v>
+      </c>
+      <c r="F43">
+        <v>93.1</v>
+      </c>
+      <c r="H43">
+        <v>108</v>
+      </c>
+      <c r="J43">
+        <v>5.9</v>
+      </c>
+      <c r="K43">
+        <v>26.6</v>
+      </c>
+      <c r="L43">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>250</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>121.5</v>
+      </c>
+      <c r="E44">
+        <v>336.2</v>
+      </c>
+      <c r="F44">
+        <v>80</v>
+      </c>
+      <c r="H44">
+        <v>130.1</v>
+      </c>
+      <c r="J44">
+        <v>7.7</v>
+      </c>
+      <c r="K44">
+        <v>34</v>
+      </c>
+      <c r="L44">
+        <v>318.10000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>62</v>
+      </c>
+      <c r="D47">
+        <v>610.79999999999995</v>
+      </c>
+      <c r="E47">
+        <v>31.1</v>
+      </c>
+      <c r="F47">
+        <v>152.6</v>
+      </c>
+      <c r="G47">
+        <v>144.9</v>
+      </c>
+      <c r="H47">
+        <v>126.3</v>
+      </c>
+      <c r="I47">
+        <v>489.3</v>
+      </c>
+      <c r="J47">
+        <v>476.4</v>
+      </c>
+      <c r="K47">
+        <v>23.3</v>
+      </c>
+      <c r="L47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>48.4</v>
+      </c>
+      <c r="D48">
+        <v>48.6</v>
+      </c>
+      <c r="E48">
+        <v>185.3</v>
+      </c>
+      <c r="F48">
+        <v>298.2</v>
+      </c>
+      <c r="G48">
+        <v>146.6</v>
+      </c>
+      <c r="H48">
+        <v>127.8</v>
+      </c>
+      <c r="I48">
+        <v>480.5</v>
+      </c>
+      <c r="J48">
+        <v>346.1</v>
+      </c>
+      <c r="K48">
+        <v>182.2</v>
+      </c>
+      <c r="L48">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>55.7</v>
+      </c>
+      <c r="D49">
+        <v>50.3</v>
+      </c>
+      <c r="E49">
+        <v>48.3</v>
+      </c>
+      <c r="F49">
+        <v>268.5</v>
+      </c>
+      <c r="G49">
+        <v>146.6</v>
+      </c>
+      <c r="H49">
+        <v>140.5</v>
+      </c>
+      <c r="I49">
+        <v>519.4</v>
+      </c>
+      <c r="J49">
+        <v>371.8</v>
+      </c>
+      <c r="L49">
+        <v>501.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>125</v>
+      </c>
+      <c r="C50">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>612</v>
+      </c>
+      <c r="E50">
+        <v>169.9</v>
+      </c>
+      <c r="F50">
+        <v>130</v>
+      </c>
+      <c r="G50">
+        <v>141.5</v>
+      </c>
+      <c r="H50">
+        <v>403.7</v>
+      </c>
+      <c r="I50">
+        <v>442.1</v>
+      </c>
+      <c r="J50">
+        <v>493.6</v>
+      </c>
+      <c r="K50">
+        <v>50.3</v>
+      </c>
+      <c r="L50">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>150</v>
+      </c>
+      <c r="C51">
+        <v>62</v>
+      </c>
+      <c r="D51">
+        <v>597</v>
+      </c>
+      <c r="E51">
+        <v>79.5</v>
+      </c>
+      <c r="F51">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="G51">
+        <v>144.6</v>
+      </c>
+      <c r="H51">
+        <v>166.6</v>
+      </c>
+      <c r="J51">
+        <v>536.4</v>
+      </c>
+      <c r="K51">
+        <v>60.6</v>
+      </c>
+      <c r="L51">
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>175</v>
+      </c>
+      <c r="C52">
+        <v>59.4</v>
+      </c>
+      <c r="D52">
+        <v>436.1</v>
+      </c>
+      <c r="E52">
+        <v>187.1</v>
+      </c>
+      <c r="F52">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="G52">
+        <v>158.5</v>
+      </c>
+      <c r="H52">
+        <v>176.2</v>
+      </c>
+      <c r="J52">
+        <v>676.3</v>
+      </c>
+      <c r="K52">
+        <v>62.7</v>
+      </c>
+      <c r="L52">
+        <v>207.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>200</v>
+      </c>
+      <c r="C53">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="D53">
+        <v>268</v>
+      </c>
+      <c r="E53">
+        <v>404.6</v>
+      </c>
+      <c r="F53">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="H53">
+        <v>178.3</v>
+      </c>
+      <c r="J53">
+        <v>361.2</v>
+      </c>
+      <c r="K53">
+        <v>62.8</v>
+      </c>
+      <c r="L53">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>225</v>
+      </c>
+      <c r="C54">
+        <v>91.6</v>
+      </c>
+      <c r="D54">
+        <v>284.5</v>
+      </c>
+      <c r="E54">
+        <v>173.5</v>
+      </c>
+      <c r="F54">
+        <v>168.3</v>
+      </c>
+      <c r="H54">
+        <v>94.2</v>
+      </c>
+      <c r="J54">
+        <v>743.9</v>
+      </c>
+      <c r="K54">
+        <v>59</v>
+      </c>
+      <c r="L54">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>250</v>
+      </c>
+      <c r="C55">
+        <v>98.8</v>
+      </c>
+      <c r="D55">
+        <v>251</v>
+      </c>
+      <c r="E55">
+        <v>86.8</v>
+      </c>
+      <c r="F55">
+        <v>135.9</v>
+      </c>
+      <c r="H55">
+        <v>78</v>
+      </c>
+      <c r="J55">
+        <v>252.5</v>
+      </c>
+      <c r="K55">
+        <v>61.2</v>
+      </c>
+      <c r="L55">
+        <v>69</v>
+      </c>
+      <c r="M55">
+        <f>MIN(B47:L55)</f>
+        <v>23.3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B630049D-DE6B-4F25-A217-CF3DD3A9EF65}">
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4067,46 +7423,37 @@
       <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
       <c r="C3">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>25.9</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>5.9</v>
+        <v>12.1</v>
       </c>
       <c r="F3">
-        <v>8.4</v>
+        <v>13.6</v>
       </c>
       <c r="G3">
-        <v>17.600000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="H3">
-        <v>10.3</v>
-      </c>
-      <c r="I3">
-        <v>17.600000000000001</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>5.0999999999999996</v>
+        <v>12.8</v>
       </c>
       <c r="K3">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4114,34 +7461,32 @@
         <v>75</v>
       </c>
       <c r="C4">
-        <v>7.1</v>
+        <v>13.5</v>
       </c>
       <c r="D4">
-        <v>4.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E4" s="4">
-        <v>12.7</v>
+        <v>11.6</v>
       </c>
       <c r="F4" s="4">
-        <v>8.9</v>
+        <v>11.8</v>
       </c>
       <c r="G4" s="4">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="H4" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="I4" s="4">
-        <v>25.8</v>
-      </c>
+        <v>9.6</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4">
-        <v>9.5</v>
+        <v>12.6</v>
       </c>
       <c r="K4" s="4">
-        <v>8.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L4" s="4">
-        <v>5.0999999999999996</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4149,34 +7494,31 @@
         <v>100</v>
       </c>
       <c r="C5">
+        <v>13.6</v>
+      </c>
+      <c r="D5">
+        <v>9.4</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>7.7</v>
+      </c>
+      <c r="G5">
+        <v>14.4</v>
+      </c>
+      <c r="H5">
+        <v>7.8</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
         <v>7.5</v>
       </c>
-      <c r="D5">
-        <v>4.5</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>6.1</v>
-      </c>
-      <c r="I5">
-        <v>34</v>
-      </c>
-      <c r="J5">
-        <v>5.5</v>
-      </c>
-      <c r="K5">
-        <v>4.0999999999999996</v>
-      </c>
       <c r="L5">
-        <v>5.2</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -4184,34 +7526,31 @@
         <v>125</v>
       </c>
       <c r="C6">
-        <v>7.2</v>
+        <v>13.7</v>
       </c>
       <c r="D6">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="E6">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="F6">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="G6">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="H6">
-        <v>6.4</v>
-      </c>
-      <c r="I6">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>6.5</v>
+        <v>14.3</v>
       </c>
       <c r="K6">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="L6">
-        <v>5.7</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4219,34 +7558,31 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>13.6</v>
       </c>
       <c r="D7">
-        <v>23.7</v>
+        <v>7.5</v>
       </c>
       <c r="E7">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="F7">
-        <v>5.6</v>
+        <v>10.3</v>
       </c>
       <c r="G7">
-        <v>12.1</v>
+        <v>14.3</v>
       </c>
       <c r="H7">
-        <v>6.5</v>
-      </c>
-      <c r="I7">
-        <v>47.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J7">
-        <v>5.0999999999999996</v>
+        <v>12.4</v>
       </c>
       <c r="K7">
-        <v>5.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L7">
-        <v>6.3</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4254,34 +7590,31 @@
         <v>175</v>
       </c>
       <c r="C8">
-        <v>7.2</v>
+        <v>13.7</v>
       </c>
       <c r="D8">
-        <v>25.7</v>
+        <v>7.6</v>
       </c>
       <c r="E8">
-        <v>7.8</v>
+        <v>9.9</v>
       </c>
       <c r="F8">
-        <v>5.3</v>
+        <v>10.3</v>
       </c>
       <c r="G8">
-        <v>12.5</v>
+        <v>15.8</v>
       </c>
       <c r="H8">
-        <v>6.5</v>
-      </c>
-      <c r="I8">
-        <v>48.9</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>5.8</v>
+        <v>14.8</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>12.7</v>
       </c>
       <c r="L8">
-        <v>6.6</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4289,45 +7622,94 @@
         <v>200</v>
       </c>
       <c r="C9">
-        <v>7.2</v>
+        <v>13.2</v>
       </c>
       <c r="D9">
-        <v>25.4</v>
+        <v>7.8</v>
       </c>
       <c r="E9">
-        <v>13.2</v>
+        <v>10.7</v>
       </c>
       <c r="F9">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
+        <v>11.6</v>
       </c>
       <c r="H9">
-        <v>6.5</v>
-      </c>
-      <c r="I9">
-        <v>49.3</v>
+        <v>7.8</v>
       </c>
       <c r="J9">
-        <v>6.1</v>
+        <v>10.5</v>
       </c>
       <c r="K9">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>6.4</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>225</v>
       </c>
+      <c r="C10">
+        <v>12.6</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>11.4</v>
+      </c>
+      <c r="F10">
+        <v>9.4</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="J10" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L10" s="4">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
+      <c r="C11">
+        <v>13.2</v>
+      </c>
+      <c r="D11">
+        <v>8.4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>13.4</v>
+      </c>
+      <c r="K11" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="L11" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M11">
+        <f>MIN(C3:L11)</f>
+        <v>3.2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4377,34 +7759,31 @@
         <v>50</v>
       </c>
       <c r="C14">
-        <v>23.8</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E14">
-        <v>15.8</v>
+        <v>24.2</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>26.2</v>
       </c>
       <c r="G14">
-        <v>28.5</v>
+        <v>27.5</v>
       </c>
       <c r="H14">
-        <v>26.7</v>
-      </c>
-      <c r="I14">
-        <v>33.200000000000003</v>
+        <v>28.4</v>
       </c>
       <c r="J14">
-        <v>9.6</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
       <c r="L14">
-        <v>36.700000000000003</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -4412,34 +7791,31 @@
         <v>75</v>
       </c>
       <c r="C15">
+        <v>24.7</v>
+      </c>
+      <c r="D15">
+        <v>33.1</v>
+      </c>
+      <c r="E15">
+        <v>23.1</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>28.1</v>
+      </c>
+      <c r="H15">
         <v>20</v>
       </c>
-      <c r="D15">
-        <v>31.5</v>
-      </c>
-      <c r="E15">
-        <v>25.9</v>
-      </c>
-      <c r="F15">
-        <v>17.5</v>
-      </c>
-      <c r="G15">
-        <v>25.3</v>
-      </c>
-      <c r="H15">
-        <v>14.6</v>
-      </c>
-      <c r="I15">
-        <v>47.8</v>
-      </c>
       <c r="J15">
-        <v>16.5</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="K15">
-        <v>18.7</v>
+        <v>19.3</v>
       </c>
       <c r="L15">
-        <v>9.6999999999999993</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -4447,189 +7823,229 @@
         <v>100</v>
       </c>
       <c r="C16">
-        <v>18.600000000000001</v>
+        <v>24.8</v>
       </c>
       <c r="D16">
-        <v>9.3000000000000007</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>20.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G16">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="H16">
-        <v>13.7</v>
-      </c>
-      <c r="I16">
-        <v>51</v>
+        <v>17.3</v>
       </c>
       <c r="J16">
-        <v>10.7</v>
+        <v>31.9</v>
       </c>
       <c r="K16">
-        <v>7.9</v>
+        <v>16.2</v>
       </c>
       <c r="L16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>125</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>24.9</v>
       </c>
       <c r="D17">
-        <v>9.1</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>36.9</v>
+        <v>21.7</v>
       </c>
       <c r="F17">
-        <v>11.8</v>
+        <v>21.5</v>
       </c>
       <c r="G17">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="H17">
-        <v>44.1</v>
-      </c>
-      <c r="I17">
-        <v>64.2</v>
+        <v>18</v>
       </c>
       <c r="J17">
-        <v>11.6</v>
+        <v>46.4</v>
       </c>
       <c r="K17">
-        <v>10.3</v>
+        <v>16.2</v>
       </c>
       <c r="L17">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>150</v>
       </c>
       <c r="C18">
-        <v>18.399999999999999</v>
+        <v>24.8</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>20.100000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="F18">
-        <v>15.2</v>
+        <v>25.4</v>
       </c>
       <c r="G18">
-        <v>22.1</v>
+        <v>26.1</v>
       </c>
       <c r="H18">
-        <v>13</v>
-      </c>
-      <c r="I18">
-        <v>80.5</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>27.8</v>
       </c>
       <c r="K18">
-        <v>10.199999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="L18">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>175</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>25.3</v>
       </c>
       <c r="D19">
-        <v>45.5</v>
+        <v>17.5</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>23.7</v>
       </c>
       <c r="F19">
-        <v>12.1</v>
+        <v>25.6</v>
       </c>
       <c r="G19">
-        <v>22.1</v>
+        <v>27.8</v>
       </c>
       <c r="H19">
-        <v>13.3</v>
-      </c>
-      <c r="I19">
-        <v>75.5</v>
+        <v>18.8</v>
       </c>
       <c r="J19">
-        <v>11.8</v>
+        <v>27.4</v>
       </c>
       <c r="K19">
-        <v>15.4</v>
+        <v>22.7</v>
       </c>
       <c r="L19">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>200</v>
       </c>
+      <c r="C20">
+        <v>25.8</v>
+      </c>
       <c r="D20">
-        <v>41.8</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E20">
-        <v>33.4</v>
+        <v>27</v>
       </c>
       <c r="F20">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
+        <v>27.6</v>
       </c>
       <c r="H20">
-        <v>13.9</v>
-      </c>
-      <c r="I20">
-        <v>87.4</v>
+        <v>18.7</v>
       </c>
       <c r="J20">
-        <v>11.6</v>
+        <v>24.3</v>
       </c>
       <c r="K20">
-        <v>9.9</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="L20">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>225</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>25.4</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>27.4</v>
+      </c>
+      <c r="F21">
+        <v>26.4</v>
+      </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L21">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>250</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>26.4</v>
+      </c>
+      <c r="D22">
+        <v>19.8</v>
+      </c>
+      <c r="E22">
+        <v>20.6</v>
+      </c>
+      <c r="F22">
+        <v>26.6</v>
+      </c>
+      <c r="H22">
+        <v>19.3</v>
+      </c>
+      <c r="J22">
+        <v>43.3</v>
+      </c>
+      <c r="K22">
+        <v>19.3</v>
+      </c>
+      <c r="L22">
+        <v>25.6</v>
+      </c>
+      <c r="M22">
+        <f>MIN(C14:L22)</f>
+        <v>9.1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -4667,13 +8083,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
         <v>0</v>
       </c>
@@ -4681,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.6</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4690,74 +8103,62 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>33.9</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="J25">
-        <v>2.2999999999999998</v>
+        <v>8.1</v>
       </c>
       <c r="K25">
-        <v>70.400000000000006</v>
+        <v>53.6</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>75</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>2.9</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="E26">
+        <v>3.4</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="J26">
         <v>1.4</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>23.8</v>
-      </c>
-      <c r="I26">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
       <c r="K26">
-        <v>24.4</v>
+        <v>20.9</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>100</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>9.1999999999999993</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="E27">
-        <v>0.49099999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -4765,37 +8166,31 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>17.3</v>
-      </c>
-      <c r="I27">
-        <v>0.73599999999999999</v>
+      <c r="H27" s="4">
+        <v>23</v>
       </c>
       <c r="J27">
-        <v>2.6989999999999998</v>
+        <v>7.7</v>
       </c>
       <c r="K27">
-        <v>17</v>
+        <v>3.8</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>125</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>23.8</v>
+        <v>1.7</v>
       </c>
       <c r="E28">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4803,34 +8198,28 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>1.7</v>
-      </c>
-      <c r="I28">
-        <v>0.61299999999999999</v>
+      <c r="H28" s="4">
+        <v>17.5</v>
       </c>
       <c r="J28">
-        <v>2.7</v>
+        <v>20.6</v>
       </c>
       <c r="K28">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>150</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4841,34 +8230,28 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
+      <c r="H29" s="4">
+        <v>0.9</v>
       </c>
       <c r="J29">
-        <v>18.8</v>
+        <v>8.1</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>175</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4879,68 +8262,74 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0.9</v>
+      <c r="H30" s="4">
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>3.2</v>
+        <v>13.7</v>
       </c>
       <c r="K30">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>200</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.13</v>
+        <v>1.8</v>
       </c>
       <c r="E31">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1.3</v>
+      <c r="H31" s="4">
+        <v>0.36799999999999999</v>
       </c>
       <c r="J31">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="K31">
-        <v>2.95</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>225</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
       <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1.8</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>10.5</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
         <v>0</v>
       </c>
     </row>
@@ -4948,10 +8337,28 @@
       <c r="A33">
         <v>250</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8.1</v>
+      </c>
+      <c r="K33">
+        <v>0.3</v>
+      </c>
+      <c r="L33">
         <v>0</v>
       </c>
     </row>
@@ -5002,282 +8409,279 @@
       <c r="A36">
         <v>50</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
       <c r="C36">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D36">
-        <v>121</v>
+        <v>115.1</v>
       </c>
       <c r="E36">
-        <v>345.9</v>
+        <v>347.3</v>
       </c>
       <c r="F36">
-        <v>85.3</v>
+        <v>83.4</v>
       </c>
       <c r="G36">
-        <v>92.9</v>
+        <v>87.8</v>
       </c>
       <c r="H36">
-        <v>6.1</v>
-      </c>
-      <c r="I36">
-        <v>151.80000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="J36">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L36">
-        <v>40.9</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>75</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
       <c r="C37">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="D37">
-        <v>159.19999999999999</v>
+        <v>147.4</v>
       </c>
       <c r="E37">
-        <v>365.6</v>
+        <v>347</v>
       </c>
       <c r="F37">
-        <v>138</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="G37">
-        <v>90.8</v>
+        <v>91.9</v>
       </c>
       <c r="H37">
-        <v>14.7</v>
-      </c>
-      <c r="I37">
-        <v>136.69999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="J37">
-        <v>9.1999999999999993</v>
+        <v>10.1</v>
       </c>
       <c r="K37">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="L37">
-        <v>54.5</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>100</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
       <c r="C38">
-        <v>11.3</v>
+        <v>16.8</v>
       </c>
       <c r="D38">
-        <v>52.4</v>
+        <v>176.5</v>
       </c>
       <c r="E38">
-        <v>342.6</v>
+        <v>349.5</v>
       </c>
       <c r="F38">
-        <v>91</v>
+        <v>82.4</v>
       </c>
       <c r="G38">
-        <v>80</v>
+        <v>90.4</v>
       </c>
       <c r="H38">
-        <v>21.3</v>
-      </c>
-      <c r="I38">
-        <v>124.2</v>
+        <v>19</v>
       </c>
       <c r="J38">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="K38">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L38">
-        <v>69.900000000000006</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>125</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
       <c r="C39">
-        <v>11.6</v>
+        <v>14.4</v>
       </c>
       <c r="D39">
-        <v>109</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="E39">
-        <v>323.10000000000002</v>
+        <v>322.8</v>
       </c>
       <c r="F39">
-        <v>115.6</v>
+        <v>104.2</v>
       </c>
       <c r="G39">
-        <v>96.3</v>
+        <v>90</v>
       </c>
       <c r="H39">
-        <v>30.6</v>
-      </c>
-      <c r="I39">
-        <v>122.76</v>
+        <v>30</v>
       </c>
       <c r="J39">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="K39">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L39">
-        <v>93</v>
+        <v>90.1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>150</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
       <c r="C40">
-        <v>14</v>
+        <v>11.8</v>
       </c>
       <c r="D40">
-        <v>121.9</v>
+        <v>125.5</v>
       </c>
       <c r="E40">
-        <v>343.2</v>
+        <v>329</v>
       </c>
       <c r="F40">
-        <v>84.4</v>
+        <v>85.1</v>
       </c>
       <c r="G40">
-        <v>90.4</v>
+        <v>97.5</v>
       </c>
       <c r="H40">
-        <v>46.2</v>
-      </c>
-      <c r="I40">
-        <v>115.4</v>
+        <v>41.4</v>
       </c>
       <c r="J40">
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="K40">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="L40">
-        <v>122.7</v>
+        <v>123.1</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>175</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
       <c r="C41">
-        <v>12.2</v>
+        <v>14.2</v>
       </c>
       <c r="D41">
-        <v>121.1</v>
+        <v>125.1</v>
       </c>
       <c r="E41">
-        <v>336.9</v>
+        <v>339.6</v>
       </c>
       <c r="F41">
-        <v>97.5</v>
+        <v>98.8</v>
       </c>
       <c r="G41">
-        <v>100.7</v>
+        <v>91.3</v>
       </c>
       <c r="H41">
-        <v>62.2</v>
-      </c>
-      <c r="I41">
-        <v>122.8</v>
+        <v>59.6</v>
       </c>
       <c r="J41">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="K41">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="L41">
-        <v>174</v>
+        <v>187.8</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>200</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
       <c r="C42">
-        <v>14.8</v>
+        <v>12.8</v>
       </c>
       <c r="D42">
-        <v>143.4</v>
+        <v>124.4</v>
       </c>
       <c r="E42">
-        <v>331.6</v>
+        <v>338.5</v>
       </c>
       <c r="F42">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="G42" t="s">
-        <v>43</v>
+        <v>82.5</v>
       </c>
       <c r="H42">
-        <v>80.2</v>
-      </c>
-      <c r="I42">
-        <v>122</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="J42">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="K42">
-        <v>19.3</v>
+        <v>20.7</v>
       </c>
       <c r="L42">
-        <v>216.1</v>
+        <v>202.4</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>225</v>
       </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="C43">
+        <v>12.7</v>
+      </c>
+      <c r="D43">
+        <v>122</v>
+      </c>
+      <c r="E43">
+        <v>336.5</v>
+      </c>
+      <c r="F43">
+        <v>90.7</v>
+      </c>
+      <c r="H43">
+        <v>105</v>
+      </c>
+      <c r="J43">
+        <v>7.9</v>
+      </c>
+      <c r="K43">
+        <v>29.5</v>
+      </c>
+      <c r="L43">
+        <v>254.4</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>250</v>
       </c>
-      <c r="B44">
-        <v>0</v>
+      <c r="C44">
+        <v>11.9</v>
+      </c>
+      <c r="D44">
+        <v>124.5</v>
+      </c>
+      <c r="E44">
+        <v>337.8</v>
+      </c>
+      <c r="F44">
+        <v>80.8</v>
+      </c>
+      <c r="H44">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="J44">
+        <v>8.9</v>
+      </c>
+      <c r="K44">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="L44">
+        <v>320.39999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -5328,34 +8732,31 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>369.8</v>
+        <v>189.7</v>
       </c>
       <c r="D47">
-        <v>554.29999999999995</v>
+        <v>565.29999999999995</v>
       </c>
       <c r="E47">
-        <v>188.6</v>
+        <v>191</v>
       </c>
       <c r="F47">
-        <v>155.4</v>
+        <v>211.8</v>
       </c>
       <c r="G47">
-        <v>180.8</v>
+        <v>138</v>
       </c>
       <c r="H47">
-        <v>128.6</v>
-      </c>
-      <c r="I47">
-        <v>152.30000000000001</v>
+        <v>104.5</v>
       </c>
       <c r="J47">
-        <v>31</v>
+        <v>245.9</v>
       </c>
       <c r="K47">
-        <v>45.1</v>
+        <v>69.7</v>
       </c>
       <c r="L47">
-        <v>36.700000000000003</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -5363,3562 +8764,223 @@
         <v>75</v>
       </c>
       <c r="C48">
-        <v>355.8</v>
+        <v>147.6</v>
       </c>
       <c r="D48">
-        <v>31.5</v>
+        <v>512.79999999999995</v>
       </c>
       <c r="E48">
-        <v>278.89999999999998</v>
+        <v>194.3</v>
       </c>
       <c r="F48">
-        <v>246.8</v>
+        <v>197.8</v>
       </c>
       <c r="G48">
-        <v>184.5</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="H48">
-        <v>68.2</v>
-      </c>
-      <c r="I48">
-        <v>336.6</v>
+        <v>100.5</v>
       </c>
       <c r="J48">
-        <v>192.2</v>
+        <v>477.9</v>
       </c>
       <c r="K48">
-        <v>292.39999999999998</v>
+        <v>197.5</v>
       </c>
       <c r="L48">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>100</v>
       </c>
       <c r="C49">
-        <v>217.9</v>
+        <v>147.5</v>
       </c>
       <c r="D49">
-        <v>34.5</v>
+        <v>513.6</v>
       </c>
       <c r="E49">
-        <v>270</v>
+        <v>170.8</v>
       </c>
       <c r="F49">
-        <v>245.6</v>
+        <v>99.7</v>
       </c>
       <c r="G49">
-        <v>164.5</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="H49">
-        <v>63.8</v>
-      </c>
-      <c r="I49">
-        <v>145.80000000000001</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="J49">
-        <v>40.200000000000003</v>
+        <v>401.5</v>
       </c>
       <c r="K49">
-        <v>19.2</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="L49">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>125</v>
       </c>
       <c r="C50">
-        <v>206</v>
+        <v>147.5</v>
       </c>
       <c r="D50">
-        <v>39.5</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="E50">
-        <v>803.6</v>
+        <v>97.6</v>
       </c>
       <c r="F50">
-        <v>64</v>
+        <v>127.8</v>
       </c>
       <c r="G50">
-        <v>153.6</v>
+        <v>158.9</v>
       </c>
       <c r="H50">
-        <v>44.1</v>
-      </c>
-      <c r="I50">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="J50">
-        <v>41.4</v>
+        <v>665.4</v>
       </c>
       <c r="K50">
-        <v>28.3</v>
+        <v>72.2</v>
       </c>
       <c r="L50">
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>150</v>
       </c>
       <c r="C51">
-        <v>250.7</v>
+        <v>147.6</v>
       </c>
       <c r="D51">
-        <v>548.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="E51">
-        <v>259.7</v>
+        <v>184.3</v>
       </c>
       <c r="F51">
-        <v>166.7</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="G51">
-        <v>115.6</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="H51">
-        <v>44.3</v>
-      </c>
-      <c r="I51">
-        <v>327.7</v>
+        <v>72.7</v>
       </c>
       <c r="J51">
-        <v>45.1</v>
+        <v>93.7</v>
       </c>
       <c r="K51">
-        <v>28</v>
+        <v>72.2</v>
       </c>
       <c r="L51">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>175</v>
       </c>
       <c r="C52">
-        <v>223.6</v>
+        <v>147.6</v>
       </c>
       <c r="D52">
-        <v>638</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="E52">
-        <v>256.3</v>
+        <v>181.4</v>
       </c>
       <c r="F52">
-        <v>82.1</v>
+        <v>254.3</v>
       </c>
       <c r="G52">
-        <v>138.1</v>
+        <v>131.9</v>
       </c>
       <c r="H52">
-        <v>42.4</v>
-      </c>
-      <c r="I52">
-        <v>184.9</v>
+        <v>72.3</v>
       </c>
       <c r="J52">
-        <v>46.7</v>
+        <v>169.4</v>
       </c>
       <c r="K52">
-        <v>29.8</v>
+        <v>73</v>
       </c>
       <c r="L52">
-        <v>55.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>200</v>
       </c>
       <c r="C53">
-        <v>222.7</v>
+        <v>164.9</v>
       </c>
       <c r="D53">
-        <v>534.1</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="E53">
-        <v>627</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="F53">
-        <v>222.9</v>
-      </c>
-      <c r="G53" t="s">
-        <v>43</v>
+        <v>254.8</v>
       </c>
       <c r="H53">
-        <v>56.5</v>
-      </c>
-      <c r="I53">
-        <v>292</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="J53">
-        <v>48.5</v>
+        <v>148</v>
       </c>
       <c r="K53">
-        <v>26.2</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="L53">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>225</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>170</v>
+      </c>
+      <c r="D54">
+        <v>80.5</v>
+      </c>
+      <c r="E54">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="F54">
+        <v>230.7</v>
+      </c>
+      <c r="H54">
+        <v>71</v>
+      </c>
+      <c r="J54">
+        <v>427.1</v>
+      </c>
+      <c r="K54">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="L54">
+        <v>233.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>250</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB401CC2-68A4-4843-A4D9-B6990517B94D}">
-  <dimension ref="A1:L55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>6.9</v>
-      </c>
-      <c r="D3">
-        <v>46.5</v>
-      </c>
-      <c r="E3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>16.5</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>21.5</v>
-      </c>
-      <c r="K3">
-        <v>3.1</v>
-      </c>
-      <c r="L3">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>6.7</v>
-      </c>
-      <c r="D4">
-        <v>6.4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="F4" s="4">
-        <v>11.7</v>
-      </c>
-      <c r="G4" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="H4" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="I4" s="4">
-        <v>33.4</v>
-      </c>
-      <c r="J4" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="K4" s="4">
-        <v>8.4</v>
-      </c>
-      <c r="L4" s="4">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>6.6</v>
-      </c>
-      <c r="D5">
-        <v>6.5</v>
-      </c>
-      <c r="E5">
-        <v>5.8</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>15.2</v>
-      </c>
-      <c r="H5">
-        <v>16.5</v>
-      </c>
-      <c r="I5">
-        <v>56.2</v>
-      </c>
-      <c r="J5">
-        <v>9.9</v>
-      </c>
-      <c r="K5">
-        <v>5.5</v>
-      </c>
-      <c r="L5">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>125</v>
-      </c>
-      <c r="C6">
-        <v>7.3</v>
-      </c>
-      <c r="D6">
-        <v>11.2</v>
-      </c>
-      <c r="E6">
-        <v>7.7</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>12.8</v>
-      </c>
-      <c r="I6">
-        <v>52.07</v>
-      </c>
-      <c r="J6">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>150</v>
-      </c>
-      <c r="C7">
-        <v>8.4</v>
-      </c>
-      <c r="D7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E7">
-        <v>7.9</v>
-      </c>
-      <c r="F7">
-        <v>7.8</v>
-      </c>
-      <c r="G7">
-        <v>12.5</v>
-      </c>
-      <c r="H7">
-        <v>12.2</v>
-      </c>
-      <c r="J7">
-        <v>11.8</v>
-      </c>
-      <c r="K7">
-        <v>7.2</v>
-      </c>
-      <c r="L7">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>175</v>
-      </c>
-      <c r="C8">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D8">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E8">
-        <v>7.4</v>
-      </c>
-      <c r="F8">
-        <v>8.4</v>
-      </c>
-      <c r="G8">
-        <v>15.9</v>
-      </c>
-      <c r="H8">
-        <v>12.5</v>
-      </c>
-      <c r="J8">
-        <v>20.6</v>
-      </c>
-      <c r="K8">
-        <v>11.3</v>
-      </c>
-      <c r="L8">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>200</v>
-      </c>
-      <c r="C9">
-        <v>11.6</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F9">
-        <v>7.5</v>
-      </c>
-      <c r="H9">
-        <v>12.6</v>
-      </c>
-      <c r="J9">
-        <v>14</v>
-      </c>
-      <c r="K9">
-        <v>7.2</v>
-      </c>
-      <c r="L9">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>225</v>
-      </c>
-      <c r="C10">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D10">
-        <v>15.5</v>
-      </c>
-      <c r="E10">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F10">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H10">
-        <v>8.1</v>
-      </c>
-      <c r="J10">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="K10">
-        <v>6.8</v>
-      </c>
-      <c r="L10">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>250</v>
-      </c>
-      <c r="C11">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D11">
-        <v>14.4</v>
-      </c>
-      <c r="E11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F11">
-        <v>6.7</v>
-      </c>
-      <c r="H11">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J11">
-        <v>10.9</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>15.3</v>
-      </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
-      <c r="E14">
-        <v>10.5</v>
-      </c>
-      <c r="F14">
-        <v>19.8</v>
-      </c>
-      <c r="G14">
-        <v>31.4</v>
-      </c>
-      <c r="H14">
-        <v>30.5</v>
-      </c>
-      <c r="I14">
-        <v>55.6</v>
-      </c>
-      <c r="J14">
-        <v>48</v>
-      </c>
-      <c r="K14">
-        <v>6.7</v>
-      </c>
-      <c r="L14">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>14.1</v>
-      </c>
-      <c r="D15">
-        <v>13.2</v>
-      </c>
-      <c r="E15">
-        <v>15.7</v>
-      </c>
-      <c r="F15">
-        <v>24.3</v>
-      </c>
-      <c r="G15">
-        <v>27.8</v>
-      </c>
-      <c r="H15">
-        <v>29.5</v>
-      </c>
-      <c r="I15">
-        <v>81.2</v>
-      </c>
-      <c r="J15">
-        <v>44</v>
-      </c>
-      <c r="K15">
-        <v>19</v>
-      </c>
-      <c r="L15">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>100</v>
-      </c>
-      <c r="C16">
-        <v>14.4</v>
-      </c>
-      <c r="D16">
-        <v>14.1</v>
-      </c>
-      <c r="E16">
-        <v>12.6</v>
-      </c>
-      <c r="F16">
-        <v>21.9</v>
-      </c>
-      <c r="G16">
-        <v>25.7</v>
-      </c>
-      <c r="H16">
-        <v>29</v>
-      </c>
-      <c r="I16">
-        <v>90.5</v>
-      </c>
-      <c r="J16">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>12.3</v>
-      </c>
-      <c r="L16">
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>125</v>
-      </c>
-      <c r="C17">
-        <v>15.5</v>
-      </c>
-      <c r="D17">
-        <v>33.4</v>
-      </c>
-      <c r="E17">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F17">
-        <v>17.8</v>
-      </c>
-      <c r="G17">
-        <v>25.5</v>
-      </c>
-      <c r="H17">
-        <v>41.7</v>
-      </c>
-      <c r="I17">
-        <v>92.9</v>
-      </c>
-      <c r="J17">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="K17">
-        <v>14</v>
-      </c>
-      <c r="L17">
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>150</v>
-      </c>
-      <c r="C18">
-        <v>16.5</v>
-      </c>
-      <c r="D18">
-        <v>33.4</v>
-      </c>
-      <c r="E18">
-        <v>18.3</v>
-      </c>
-      <c r="F18">
-        <v>23.2</v>
-      </c>
-      <c r="G18">
-        <v>23.9</v>
-      </c>
-      <c r="H18">
-        <v>23.5</v>
-      </c>
-      <c r="J18">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="K18">
-        <v>17</v>
-      </c>
-      <c r="L18">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>175</v>
-      </c>
-      <c r="C19">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D19">
-        <v>39.1</v>
-      </c>
-      <c r="E19">
-        <v>21.2</v>
-      </c>
-      <c r="F19">
-        <v>23.5</v>
-      </c>
-      <c r="G19">
-        <v>27.3</v>
-      </c>
-      <c r="H19">
-        <v>23.5</v>
-      </c>
-      <c r="J19">
-        <v>38.9</v>
-      </c>
-      <c r="K19">
-        <v>21.7</v>
-      </c>
-      <c r="L19">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>200</v>
-      </c>
-      <c r="C20">
-        <v>21.6</v>
-      </c>
-      <c r="D20">
-        <v>28.6</v>
-      </c>
-      <c r="E20">
-        <v>21.4</v>
-      </c>
-      <c r="F20">
-        <v>19.2</v>
-      </c>
-      <c r="H20">
-        <v>23.6</v>
-      </c>
-      <c r="J20">
-        <v>42.7</v>
-      </c>
-      <c r="K20">
-        <v>17.5</v>
-      </c>
-      <c r="L20">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>225</v>
-      </c>
-      <c r="C21">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D21">
-        <v>29.1</v>
-      </c>
-      <c r="E21">
-        <v>22.4</v>
-      </c>
-      <c r="F21">
-        <v>25.5</v>
-      </c>
-      <c r="H21">
-        <v>20.8</v>
-      </c>
-      <c r="J21">
-        <v>43.1</v>
-      </c>
-      <c r="K21">
-        <v>16.7</v>
-      </c>
-      <c r="L21">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>250</v>
-      </c>
-      <c r="C22">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E22">
-        <v>19</v>
-      </c>
-      <c r="F22">
-        <v>17.3</v>
-      </c>
-      <c r="H22">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="J22">
-        <v>34.5</v>
-      </c>
-      <c r="K22">
-        <v>17.2</v>
-      </c>
-      <c r="L22">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>50</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>14.1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>5.3</v>
-      </c>
-      <c r="J25">
-        <v>27.6</v>
-      </c>
-      <c r="K25">
-        <v>55.3</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>75</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E26">
-        <v>23.3</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J26">
-        <v>33.4</v>
-      </c>
-      <c r="K26">
-        <v>31.3</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>100</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1.35</v>
-      </c>
-      <c r="E27">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J27">
-        <v>40.9</v>
-      </c>
-      <c r="K27">
-        <v>5.3</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>125</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0.245</v>
-      </c>
-      <c r="E28">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0.24</v>
-      </c>
-      <c r="I28">
-        <v>4.5</v>
-      </c>
-      <c r="J28">
-        <v>46.4</v>
-      </c>
-      <c r="K28">
-        <v>2.7</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>150</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0.245</v>
-      </c>
-      <c r="E29">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>37.4</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>175</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0.37</v>
-      </c>
-      <c r="E30">
-        <v>0.98</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>200</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0.628</v>
-      </c>
-      <c r="E31">
-        <v>0.37</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="K31">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>225</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0.628</v>
-      </c>
-      <c r="E32">
-        <v>0.37</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>59.9</v>
-      </c>
-      <c r="K32">
-        <v>0.123</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>250</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0.628</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>23.8</v>
-      </c>
-      <c r="K33">
-        <v>0.123</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>50</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>12.5</v>
-      </c>
-      <c r="D36">
-        <v>118.3</v>
-      </c>
-      <c r="E36">
-        <v>291.7</v>
-      </c>
-      <c r="F36">
-        <v>85.2</v>
-      </c>
-      <c r="G36">
-        <v>88.5</v>
-      </c>
-      <c r="H36">
-        <v>6.6</v>
-      </c>
-      <c r="I36">
-        <v>134.19999999999999</v>
-      </c>
-      <c r="J36">
-        <v>6.8</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>75</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>11.3</v>
-      </c>
-      <c r="D37">
-        <v>149</v>
-      </c>
-      <c r="E37">
-        <v>326</v>
-      </c>
-      <c r="F37">
-        <v>133</v>
-      </c>
-      <c r="G37">
-        <v>94.3</v>
-      </c>
-      <c r="H37">
-        <v>12.9</v>
-      </c>
-      <c r="I37">
-        <v>109.4</v>
-      </c>
-      <c r="J37">
-        <v>7.1</v>
-      </c>
-      <c r="K37">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L37">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>100</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>14</v>
-      </c>
-      <c r="D38">
-        <v>211.8</v>
-      </c>
-      <c r="E38">
-        <v>327.39999999999998</v>
-      </c>
-      <c r="F38">
-        <v>91.9</v>
-      </c>
-      <c r="G38">
-        <v>100</v>
-      </c>
-      <c r="H38">
-        <v>22.1</v>
-      </c>
-      <c r="I38">
-        <v>133.1</v>
-      </c>
-      <c r="J38">
-        <v>9.4</v>
-      </c>
-      <c r="K38">
-        <v>5</v>
-      </c>
-      <c r="L38">
-        <v>69.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>125</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>14.3</v>
-      </c>
-      <c r="D39">
-        <v>116.95</v>
-      </c>
-      <c r="E39">
-        <v>329.9</v>
-      </c>
-      <c r="F39">
-        <v>107.2</v>
-      </c>
-      <c r="G39">
-        <v>95.2</v>
-      </c>
-      <c r="H39">
-        <v>35</v>
-      </c>
-      <c r="I39">
-        <v>122.76</v>
-      </c>
-      <c r="J39">
-        <v>6.5</v>
-      </c>
-      <c r="K39">
-        <v>8.6</v>
-      </c>
-      <c r="L39">
-        <v>89.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>150</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>13.7</v>
-      </c>
-      <c r="D40">
-        <v>121.4</v>
-      </c>
-      <c r="E40">
-        <v>314.2</v>
-      </c>
-      <c r="F40">
-        <v>82.2</v>
-      </c>
-      <c r="G40">
-        <v>89.2</v>
-      </c>
-      <c r="H40">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="J40">
-        <v>6.7</v>
-      </c>
-      <c r="K40">
-        <v>10.8</v>
-      </c>
-      <c r="L40">
-        <v>128.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>175</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>12</v>
-      </c>
-      <c r="D41">
-        <v>121.5</v>
-      </c>
-      <c r="E41">
-        <v>329.8</v>
-      </c>
-      <c r="F41">
-        <v>101.2</v>
-      </c>
-      <c r="G41">
-        <v>89</v>
-      </c>
-      <c r="H41">
-        <v>61.9</v>
-      </c>
-      <c r="J41">
-        <v>6.7</v>
-      </c>
-      <c r="K41">
-        <v>14.8</v>
-      </c>
-      <c r="L41">
-        <v>157.80000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>200</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>13.5</v>
-      </c>
-      <c r="D42">
-        <v>118.2</v>
-      </c>
-      <c r="E42">
-        <v>321.7</v>
-      </c>
-      <c r="F42">
-        <v>83.4</v>
-      </c>
-      <c r="H42">
-        <v>81</v>
-      </c>
-      <c r="J42">
-        <v>7.2</v>
-      </c>
-      <c r="K42">
-        <v>22.2</v>
-      </c>
-      <c r="L42">
-        <v>212.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>225</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>12.8</v>
-      </c>
-      <c r="D43">
-        <v>121.3</v>
-      </c>
-      <c r="E43">
-        <v>340.9</v>
-      </c>
-      <c r="F43">
-        <v>93.1</v>
-      </c>
-      <c r="H43">
-        <v>108</v>
-      </c>
-      <c r="J43">
-        <v>5.9</v>
-      </c>
-      <c r="K43">
-        <v>26.6</v>
-      </c>
-      <c r="L43">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>250</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>12</v>
-      </c>
-      <c r="D44">
-        <v>121.5</v>
-      </c>
-      <c r="E44">
-        <v>336.2</v>
-      </c>
-      <c r="F44">
-        <v>80</v>
-      </c>
-      <c r="H44">
-        <v>130.1</v>
-      </c>
-      <c r="J44">
-        <v>7.7</v>
-      </c>
-      <c r="K44">
-        <v>34</v>
-      </c>
-      <c r="L44">
-        <v>318.10000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" t="s">
-        <v>7</v>
-      </c>
-      <c r="L46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>50</v>
-      </c>
-      <c r="C47">
-        <v>62</v>
-      </c>
-      <c r="D47">
-        <v>610.79999999999995</v>
-      </c>
-      <c r="E47">
-        <v>31.1</v>
-      </c>
-      <c r="F47">
-        <v>152.6</v>
-      </c>
-      <c r="G47">
-        <v>144.9</v>
-      </c>
-      <c r="H47">
-        <v>126.3</v>
-      </c>
-      <c r="I47">
-        <v>489.3</v>
-      </c>
-      <c r="J47">
-        <v>476.4</v>
-      </c>
-      <c r="K47">
-        <v>23.3</v>
-      </c>
-      <c r="L47">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>75</v>
-      </c>
-      <c r="C48">
-        <v>48.4</v>
-      </c>
-      <c r="D48">
-        <v>48.6</v>
-      </c>
-      <c r="E48">
-        <v>185.3</v>
-      </c>
-      <c r="F48">
-        <v>298.2</v>
-      </c>
-      <c r="G48">
-        <v>146.6</v>
-      </c>
-      <c r="H48">
-        <v>127.8</v>
-      </c>
-      <c r="I48">
-        <v>480.5</v>
-      </c>
-      <c r="J48">
-        <v>346.1</v>
-      </c>
-      <c r="K48">
-        <v>182.2</v>
-      </c>
-      <c r="L48">
-        <v>77.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>100</v>
-      </c>
-      <c r="C49">
-        <v>55.7</v>
-      </c>
-      <c r="D49">
-        <v>50.3</v>
-      </c>
-      <c r="E49">
-        <v>48.3</v>
-      </c>
-      <c r="F49">
-        <v>268.5</v>
-      </c>
-      <c r="G49">
-        <v>146.6</v>
-      </c>
-      <c r="H49">
-        <v>140.5</v>
-      </c>
-      <c r="I49">
-        <v>519.4</v>
-      </c>
-      <c r="J49">
-        <v>371.8</v>
-      </c>
-      <c r="L49">
-        <v>501.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>125</v>
-      </c>
-      <c r="C50">
-        <v>62</v>
-      </c>
-      <c r="D50">
-        <v>612</v>
-      </c>
-      <c r="E50">
-        <v>169.9</v>
-      </c>
-      <c r="F50">
-        <v>130</v>
-      </c>
-      <c r="G50">
-        <v>141.5</v>
-      </c>
-      <c r="H50">
-        <v>403.7</v>
-      </c>
-      <c r="I50">
-        <v>442.1</v>
-      </c>
-      <c r="J50">
-        <v>493.6</v>
-      </c>
-      <c r="K50">
-        <v>50.3</v>
-      </c>
-      <c r="L50">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>150</v>
-      </c>
-      <c r="C51">
-        <v>62</v>
-      </c>
-      <c r="D51">
-        <v>597</v>
-      </c>
-      <c r="E51">
-        <v>79.5</v>
-      </c>
-      <c r="F51">
-        <v>307.39999999999998</v>
-      </c>
-      <c r="G51">
-        <v>144.6</v>
-      </c>
-      <c r="H51">
-        <v>166.6</v>
-      </c>
-      <c r="J51">
-        <v>536.4</v>
-      </c>
-      <c r="K51">
-        <v>60.6</v>
-      </c>
-      <c r="L51">
-        <v>112.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>175</v>
-      </c>
-      <c r="C52">
-        <v>59.4</v>
-      </c>
-      <c r="D52">
-        <v>436.1</v>
-      </c>
-      <c r="E52">
-        <v>187.1</v>
-      </c>
-      <c r="F52">
-        <v>297.10000000000002</v>
-      </c>
-      <c r="G52">
-        <v>158.5</v>
-      </c>
-      <c r="H52">
-        <v>176.2</v>
-      </c>
-      <c r="J52">
-        <v>676.3</v>
-      </c>
-      <c r="K52">
-        <v>62.7</v>
-      </c>
-      <c r="L52">
-        <v>207.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>200</v>
-      </c>
-      <c r="C53">
-        <v>128.30000000000001</v>
-      </c>
-      <c r="D53">
-        <v>268</v>
-      </c>
-      <c r="E53">
-        <v>404.6</v>
-      </c>
-      <c r="F53">
-        <v>132.19999999999999</v>
-      </c>
-      <c r="H53">
-        <v>178.3</v>
-      </c>
-      <c r="J53">
-        <v>361.2</v>
-      </c>
-      <c r="K53">
-        <v>62.8</v>
-      </c>
-      <c r="L53">
-        <v>57.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>225</v>
-      </c>
-      <c r="C54">
-        <v>91.6</v>
-      </c>
-      <c r="D54">
-        <v>284.5</v>
-      </c>
-      <c r="E54">
-        <v>173.5</v>
-      </c>
-      <c r="F54">
-        <v>168.3</v>
-      </c>
-      <c r="H54">
-        <v>94.2</v>
-      </c>
-      <c r="J54">
-        <v>743.9</v>
-      </c>
-      <c r="K54">
-        <v>59</v>
-      </c>
-      <c r="L54">
-        <v>84.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>250</v>
-      </c>
-      <c r="C55">
-        <v>98.8</v>
-      </c>
-      <c r="D55">
-        <v>251</v>
-      </c>
-      <c r="E55">
-        <v>86.8</v>
-      </c>
-      <c r="F55">
-        <v>135.9</v>
-      </c>
-      <c r="H55">
-        <v>78</v>
-      </c>
-      <c r="J55">
-        <v>252.5</v>
-      </c>
-      <c r="K55">
-        <v>61.2</v>
-      </c>
-      <c r="L55">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B630049D-DE6B-4F25-A217-CF3DD3A9EF65}">
-  <dimension ref="A1:L55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>12.1</v>
-      </c>
-      <c r="F3">
-        <v>13.6</v>
-      </c>
-      <c r="G3">
-        <v>16.2</v>
-      </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>12.8</v>
-      </c>
-      <c r="K3">
-        <v>3.2</v>
-      </c>
-      <c r="L3">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>13.5</v>
-      </c>
-      <c r="D4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E4" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="F4" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="G4" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="H4" s="4">
-        <v>9.6</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="K4" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="L4" s="4">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>13.6</v>
-      </c>
-      <c r="D5">
-        <v>9.4</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>7.7</v>
-      </c>
-      <c r="G5">
-        <v>14.4</v>
-      </c>
-      <c r="H5">
-        <v>7.8</v>
-      </c>
-      <c r="J5">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>7.5</v>
-      </c>
-      <c r="L5">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>125</v>
-      </c>
-      <c r="C6">
-        <v>13.7</v>
-      </c>
-      <c r="D6">
-        <v>7.4</v>
-      </c>
-      <c r="E6">
-        <v>8.9</v>
-      </c>
-      <c r="F6">
-        <v>8.6</v>
-      </c>
-      <c r="G6">
-        <v>14.2</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>14.3</v>
-      </c>
-      <c r="K6">
-        <v>7.5</v>
-      </c>
-      <c r="L6">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>150</v>
-      </c>
-      <c r="C7">
-        <v>13.6</v>
-      </c>
-      <c r="D7">
-        <v>7.5</v>
-      </c>
-      <c r="E7">
-        <v>9.5</v>
-      </c>
-      <c r="F7">
-        <v>10.3</v>
-      </c>
-      <c r="G7">
-        <v>14.3</v>
-      </c>
-      <c r="H7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J7">
-        <v>12.4</v>
-      </c>
-      <c r="K7">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L7">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>175</v>
-      </c>
-      <c r="C8">
-        <v>13.7</v>
-      </c>
-      <c r="D8">
-        <v>7.6</v>
-      </c>
-      <c r="E8">
-        <v>9.9</v>
-      </c>
-      <c r="F8">
-        <v>10.3</v>
-      </c>
-      <c r="G8">
-        <v>15.8</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>14.8</v>
-      </c>
-      <c r="K8">
-        <v>12.7</v>
-      </c>
-      <c r="L8">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>200</v>
-      </c>
-      <c r="C9">
-        <v>13.2</v>
-      </c>
-      <c r="D9">
-        <v>7.8</v>
-      </c>
-      <c r="E9">
-        <v>10.7</v>
-      </c>
-      <c r="F9">
-        <v>11.6</v>
-      </c>
-      <c r="H9">
-        <v>7.8</v>
-      </c>
-      <c r="J9">
-        <v>10.5</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>225</v>
-      </c>
-      <c r="C10">
-        <v>12.6</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>11.4</v>
-      </c>
-      <c r="F10">
-        <v>9.4</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="J10" s="4">
-        <v>22.2</v>
-      </c>
-      <c r="K10" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L10" s="4">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>250</v>
-      </c>
-      <c r="C11">
-        <v>13.2</v>
-      </c>
-      <c r="D11">
-        <v>8.4</v>
-      </c>
-      <c r="E11" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F11" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>13.4</v>
-      </c>
-      <c r="K11" s="4">
-        <v>8.9</v>
-      </c>
-      <c r="L11" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>64</v>
-      </c>
-      <c r="E14">
-        <v>24.2</v>
-      </c>
-      <c r="F14">
-        <v>26.2</v>
-      </c>
-      <c r="G14">
-        <v>27.5</v>
-      </c>
-      <c r="H14">
-        <v>28.4</v>
-      </c>
-      <c r="J14">
-        <v>30</v>
-      </c>
-      <c r="K14">
-        <v>9.1</v>
-      </c>
-      <c r="L14">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>24.7</v>
-      </c>
-      <c r="D15">
-        <v>33.1</v>
-      </c>
-      <c r="E15">
-        <v>23.1</v>
-      </c>
-      <c r="F15">
-        <v>23</v>
-      </c>
-      <c r="G15">
-        <v>28.1</v>
-      </c>
-      <c r="H15">
-        <v>20</v>
-      </c>
-      <c r="J15">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="K15">
-        <v>19.3</v>
-      </c>
-      <c r="L15">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>100</v>
-      </c>
-      <c r="C16">
-        <v>24.8</v>
-      </c>
-      <c r="D16">
-        <v>33</v>
-      </c>
-      <c r="E16">
-        <v>23</v>
-      </c>
-      <c r="F16">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G16">
-        <v>25.8</v>
-      </c>
-      <c r="H16">
-        <v>17.3</v>
-      </c>
-      <c r="J16">
-        <v>31.9</v>
-      </c>
-      <c r="K16">
-        <v>16.2</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>125</v>
-      </c>
-      <c r="C17">
-        <v>24.9</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>21.7</v>
-      </c>
-      <c r="F17">
-        <v>21.5</v>
-      </c>
-      <c r="G17">
-        <v>25.2</v>
-      </c>
-      <c r="H17">
-        <v>18</v>
-      </c>
-      <c r="J17">
-        <v>46.4</v>
-      </c>
-      <c r="K17">
-        <v>16.2</v>
-      </c>
-      <c r="L17">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>150</v>
-      </c>
-      <c r="C18">
-        <v>24.8</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>23.3</v>
-      </c>
-      <c r="F18">
-        <v>25.4</v>
-      </c>
-      <c r="G18">
-        <v>26.1</v>
-      </c>
-      <c r="H18">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="J18">
-        <v>27.8</v>
-      </c>
-      <c r="K18">
-        <v>17.7</v>
-      </c>
-      <c r="L18">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>175</v>
-      </c>
-      <c r="C19">
-        <v>25.3</v>
-      </c>
-      <c r="D19">
-        <v>17.5</v>
-      </c>
-      <c r="E19">
-        <v>23.7</v>
-      </c>
-      <c r="F19">
-        <v>25.6</v>
-      </c>
-      <c r="G19">
-        <v>27.8</v>
-      </c>
-      <c r="H19">
-        <v>18.8</v>
-      </c>
-      <c r="J19">
-        <v>27.4</v>
-      </c>
-      <c r="K19">
-        <v>22.7</v>
-      </c>
-      <c r="L19">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>200</v>
-      </c>
-      <c r="C20">
-        <v>25.8</v>
-      </c>
-      <c r="D20">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E20">
-        <v>27</v>
-      </c>
-      <c r="F20">
-        <v>27.6</v>
-      </c>
-      <c r="H20">
-        <v>18.7</v>
-      </c>
-      <c r="J20">
-        <v>24.3</v>
-      </c>
-      <c r="K20">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="L20">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>225</v>
-      </c>
-      <c r="C21">
-        <v>25.4</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>27.4</v>
-      </c>
-      <c r="F21">
-        <v>26.4</v>
-      </c>
-      <c r="H21">
-        <v>19</v>
-      </c>
-      <c r="J21">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="L21">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>250</v>
-      </c>
-      <c r="C22">
-        <v>26.4</v>
-      </c>
-      <c r="D22">
-        <v>19.8</v>
-      </c>
-      <c r="E22">
-        <v>20.6</v>
-      </c>
-      <c r="F22">
-        <v>26.6</v>
-      </c>
-      <c r="H22">
-        <v>19.3</v>
-      </c>
-      <c r="J22">
-        <v>43.3</v>
-      </c>
-      <c r="K22">
-        <v>19.3</v>
-      </c>
-      <c r="L22">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>12.4</v>
-      </c>
-      <c r="J25">
-        <v>8.1</v>
-      </c>
-      <c r="K25">
-        <v>53.6</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>75</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="E26">
-        <v>3.4</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="J26">
-        <v>1.4</v>
-      </c>
-      <c r="K26">
-        <v>20.9</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>100</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="E27">
-        <v>0.74</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>23</v>
-      </c>
-      <c r="J27">
-        <v>7.7</v>
-      </c>
-      <c r="K27">
-        <v>3.8</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>125</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1.7</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="J28">
-        <v>20.6</v>
-      </c>
-      <c r="K28">
-        <v>1.9</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>150</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1.7</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="J29">
-        <v>8.1</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>175</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1.7</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>13.7</v>
-      </c>
-      <c r="K30">
-        <v>0.7</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>200</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1.8</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="J31">
-        <v>11.5</v>
-      </c>
-      <c r="K31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>225</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1.8</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>10.5</v>
-      </c>
-      <c r="K32">
-        <v>0.5</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>250</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>8.1</v>
-      </c>
-      <c r="K33">
-        <v>0.3</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>50</v>
-      </c>
-      <c r="C36">
-        <v>11.1</v>
-      </c>
-      <c r="D36">
-        <v>115.1</v>
-      </c>
-      <c r="E36">
-        <v>347.3</v>
-      </c>
-      <c r="F36">
-        <v>83.4</v>
-      </c>
-      <c r="G36">
-        <v>87.8</v>
-      </c>
-      <c r="H36">
-        <v>8.1</v>
-      </c>
-      <c r="J36">
-        <v>8.4</v>
-      </c>
-      <c r="K36">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L36">
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>75</v>
-      </c>
-      <c r="C37">
-        <v>12.7</v>
-      </c>
-      <c r="D37">
-        <v>147.4</v>
-      </c>
-      <c r="E37">
-        <v>347</v>
-      </c>
-      <c r="F37">
-        <v>129.30000000000001</v>
-      </c>
-      <c r="G37">
-        <v>91.9</v>
-      </c>
-      <c r="H37">
-        <v>10.6</v>
-      </c>
-      <c r="J37">
-        <v>10.1</v>
-      </c>
-      <c r="K37">
-        <v>2.6</v>
-      </c>
-      <c r="L37">
-        <v>51.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>100</v>
-      </c>
-      <c r="C38">
-        <v>16.8</v>
-      </c>
-      <c r="D38">
-        <v>176.5</v>
-      </c>
-      <c r="E38">
-        <v>349.5</v>
-      </c>
-      <c r="F38">
-        <v>82.4</v>
-      </c>
-      <c r="G38">
-        <v>90.4</v>
-      </c>
-      <c r="H38">
-        <v>19</v>
-      </c>
-      <c r="J38">
-        <v>7.8</v>
-      </c>
-      <c r="K38">
-        <v>4.2</v>
-      </c>
-      <c r="L38">
-        <v>65.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>125</v>
-      </c>
-      <c r="C39">
-        <v>14.4</v>
-      </c>
-      <c r="D39">
-        <v>137.80000000000001</v>
-      </c>
-      <c r="E39">
-        <v>322.8</v>
-      </c>
-      <c r="F39">
-        <v>104.2</v>
-      </c>
-      <c r="G39">
-        <v>90</v>
-      </c>
-      <c r="H39">
-        <v>30</v>
-      </c>
-      <c r="J39">
-        <v>7.8</v>
-      </c>
-      <c r="K39">
-        <v>6.2</v>
-      </c>
-      <c r="L39">
-        <v>90.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>150</v>
-      </c>
-      <c r="C40">
-        <v>11.8</v>
-      </c>
-      <c r="D40">
-        <v>125.5</v>
-      </c>
-      <c r="E40">
-        <v>329</v>
-      </c>
-      <c r="F40">
-        <v>85.1</v>
-      </c>
-      <c r="G40">
-        <v>97.5</v>
-      </c>
-      <c r="H40">
-        <v>41.4</v>
-      </c>
-      <c r="J40">
-        <v>8</v>
-      </c>
-      <c r="K40">
-        <v>10.4</v>
-      </c>
-      <c r="L40">
-        <v>123.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>175</v>
-      </c>
-      <c r="C41">
-        <v>14.2</v>
-      </c>
-      <c r="D41">
-        <v>125.1</v>
-      </c>
-      <c r="E41">
-        <v>339.6</v>
-      </c>
-      <c r="F41">
-        <v>98.8</v>
-      </c>
-      <c r="G41">
-        <v>91.3</v>
-      </c>
-      <c r="H41">
-        <v>59.6</v>
-      </c>
-      <c r="J41">
-        <v>7.9</v>
-      </c>
-      <c r="K41">
-        <v>16.5</v>
-      </c>
-      <c r="L41">
-        <v>187.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>200</v>
-      </c>
-      <c r="C42">
-        <v>12.8</v>
-      </c>
-      <c r="D42">
-        <v>124.4</v>
-      </c>
-      <c r="E42">
-        <v>338.5</v>
-      </c>
-      <c r="F42">
-        <v>82.5</v>
-      </c>
-      <c r="H42">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="J42">
-        <v>8.9</v>
-      </c>
-      <c r="K42">
-        <v>20.7</v>
-      </c>
-      <c r="L42">
-        <v>202.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>225</v>
-      </c>
-      <c r="C43">
-        <v>12.7</v>
-      </c>
-      <c r="D43">
-        <v>122</v>
-      </c>
-      <c r="E43">
-        <v>336.5</v>
-      </c>
-      <c r="F43">
-        <v>90.7</v>
-      </c>
-      <c r="H43">
-        <v>105</v>
-      </c>
-      <c r="J43">
-        <v>7.9</v>
-      </c>
-      <c r="K43">
-        <v>29.5</v>
-      </c>
-      <c r="L43">
-        <v>254.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>250</v>
-      </c>
-      <c r="C44">
-        <v>11.9</v>
-      </c>
-      <c r="D44">
-        <v>124.5</v>
-      </c>
-      <c r="E44">
-        <v>337.8</v>
-      </c>
-      <c r="F44">
-        <v>80.8</v>
-      </c>
-      <c r="H44">
-        <v>129.19999999999999</v>
-      </c>
-      <c r="J44">
-        <v>8.9</v>
-      </c>
-      <c r="K44">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="L44">
-        <v>320.39999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" t="s">
-        <v>7</v>
-      </c>
-      <c r="L46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>50</v>
-      </c>
-      <c r="C47">
-        <v>189.7</v>
-      </c>
-      <c r="D47">
-        <v>565.29999999999995</v>
-      </c>
-      <c r="E47">
-        <v>191</v>
-      </c>
-      <c r="F47">
-        <v>211.8</v>
-      </c>
-      <c r="G47">
-        <v>138</v>
-      </c>
-      <c r="H47">
-        <v>104.5</v>
-      </c>
-      <c r="J47">
-        <v>245.9</v>
-      </c>
-      <c r="K47">
-        <v>69.7</v>
-      </c>
-      <c r="L47">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>75</v>
-      </c>
-      <c r="C48">
-        <v>147.6</v>
-      </c>
-      <c r="D48">
-        <v>512.79999999999995</v>
-      </c>
-      <c r="E48">
-        <v>194.3</v>
-      </c>
-      <c r="F48">
-        <v>197.8</v>
-      </c>
-      <c r="G48">
-        <v>143.80000000000001</v>
-      </c>
-      <c r="H48">
-        <v>100.5</v>
-      </c>
-      <c r="J48">
-        <v>477.9</v>
-      </c>
-      <c r="K48">
-        <v>197.5</v>
-      </c>
-      <c r="L48">
-        <v>73.400000000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>100</v>
-      </c>
-      <c r="C49">
-        <v>147.5</v>
-      </c>
-      <c r="D49">
-        <v>513.6</v>
-      </c>
-      <c r="E49">
-        <v>170.8</v>
-      </c>
-      <c r="F49">
-        <v>99.7</v>
-      </c>
-      <c r="G49">
-        <v>133.19999999999999</v>
-      </c>
-      <c r="H49">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="J49">
-        <v>401.5</v>
-      </c>
-      <c r="K49">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="L49">
-        <v>74.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>125</v>
-      </c>
-      <c r="C50">
-        <v>147.5</v>
-      </c>
-      <c r="D50">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="E50">
-        <v>97.6</v>
-      </c>
-      <c r="F50">
-        <v>127.8</v>
-      </c>
-      <c r="G50">
-        <v>158.9</v>
-      </c>
-      <c r="H50">
-        <v>75</v>
-      </c>
-      <c r="J50">
-        <v>665.4</v>
-      </c>
-      <c r="K50">
-        <v>72.2</v>
-      </c>
-      <c r="L50">
-        <v>69.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>150</v>
-      </c>
-      <c r="C51">
-        <v>147.6</v>
-      </c>
-      <c r="D51">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="E51">
-        <v>184.3</v>
-      </c>
-      <c r="F51">
-        <v>273.10000000000002</v>
-      </c>
-      <c r="G51">
-        <v>147.80000000000001</v>
-      </c>
-      <c r="H51">
-        <v>72.7</v>
-      </c>
-      <c r="J51">
-        <v>93.7</v>
-      </c>
-      <c r="K51">
-        <v>72.2</v>
-      </c>
-      <c r="L51">
-        <v>72.400000000000006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>175</v>
-      </c>
-      <c r="C52">
-        <v>147.6</v>
-      </c>
-      <c r="D52">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="E52">
-        <v>181.4</v>
-      </c>
-      <c r="F52">
-        <v>254.3</v>
-      </c>
-      <c r="G52">
-        <v>131.9</v>
-      </c>
-      <c r="H52">
-        <v>72.3</v>
-      </c>
-      <c r="J52">
-        <v>169.4</v>
-      </c>
-      <c r="K52">
-        <v>73</v>
-      </c>
-      <c r="L52">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>200</v>
-      </c>
-      <c r="C53">
-        <v>164.9</v>
-      </c>
-      <c r="D53">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="E53">
-        <v>275.39999999999998</v>
-      </c>
-      <c r="F53">
-        <v>254.8</v>
-      </c>
-      <c r="H53">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="J53">
-        <v>148</v>
-      </c>
-      <c r="K53">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="L53">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>225</v>
-      </c>
-      <c r="C54">
-        <v>170</v>
-      </c>
-      <c r="D54">
-        <v>80.5</v>
-      </c>
-      <c r="E54">
-        <v>272.60000000000002</v>
-      </c>
-      <c r="F54">
-        <v>230.7</v>
-      </c>
-      <c r="H54">
-        <v>71</v>
-      </c>
-      <c r="J54">
-        <v>427.1</v>
-      </c>
-      <c r="K54">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="L54">
-        <v>233.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>250</v>
-      </c>
       <c r="C55">
         <v>153.80000000000001</v>
       </c>
@@ -8942,6 +9004,13 @@
       </c>
       <c r="L55">
         <v>219.4</v>
+      </c>
+      <c r="M55">
+        <f>MIN(C47:L55)</f>
+        <v>69.2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
